--- a/amk-main-public/M1.xlsx
+++ b/amk-main-public/M1.xlsx
@@ -62,6 +62,12 @@
   <si>
     <t>1.7</t>
   </si>
+  <si>
+    <t>Нижний предел</t>
+  </si>
+  <si>
+    <t>Верхний предел</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +96,44 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <color rgb="FFFFFFFF"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,8 +145,13 @@
         <fgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA6A6A6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -127,11 +174,744 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -170,6 +950,327 @@
     </xf>
     <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
       <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="13" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="14" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="15" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="16" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="17" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="18" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="20" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="21" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="22" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="23" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="24" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="25" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="26" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="27" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="25" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="26" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="27" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="20" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="21" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="24" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="25" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="26" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="27" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="3" applyFill="1" borderId="19" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="29" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="30" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="31" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="32" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="33" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="35" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="28" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="29" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="30" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="31" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="23" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="32" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="33" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="34" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="35" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="38" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="39" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="40" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="42" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="43" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="44" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="3" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="45" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="46" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="47" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="48" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="49" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="3" applyFill="1" borderId="51" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="41" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="52" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="36" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="54" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="3" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="53" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="55" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="56" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="59" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="60" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="37" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="61" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="58" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="62" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="1" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="2" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="57" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment horizontal="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="50" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="top"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="63" applyBorder="1" applyAlignment="1" applyProtection="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
       <protection/>
     </xf>
   </cellXfs>
@@ -479,8 +1580,8 @@
   </sheetPr>
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A37">
-      <selection activeCell="F47" sqref="F47" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A103">
+      <selection activeCell="E128" sqref="E128:M137" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -575,6 +1676,11 @@
       <c r="M2" s="9">
         <v>400</v>
       </c>
+      <c r="N2" s="58" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" customHeight="1" ht="18">
       <c r="A3" s="8">
@@ -616,6 +1722,9 @@
       <c r="M3" s="9">
         <v>129</v>
       </c>
+      <c r="N3" s="52"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" customHeight="1" ht="18">
       <c r="A4" s="8">
@@ -657,6 +1766,9 @@
       <c r="M4" s="9">
         <v>129</v>
       </c>
+      <c r="N4" s="52"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" customHeight="1" ht="18">
       <c r="A5" s="8">
@@ -698,6 +1810,9 @@
       <c r="M5" s="9">
         <v>129</v>
       </c>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" customHeight="1" ht="18">
       <c r="A6" s="8">
@@ -739,6 +1854,9 @@
       <c r="M6" s="9">
         <v>129</v>
       </c>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" customHeight="1" ht="18">
       <c r="A7" s="8">
@@ -780,6 +1898,9 @@
       <c r="M7" s="9">
         <v>129</v>
       </c>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" customHeight="1" ht="18">
       <c r="A8" s="8">
@@ -821,6 +1942,9 @@
       <c r="M8" s="9">
         <v>129</v>
       </c>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" customHeight="1" ht="18">
       <c r="A9" s="8">
@@ -862,6 +1986,9 @@
       <c r="M9" s="9">
         <v>129</v>
       </c>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" customHeight="1" ht="18">
       <c r="A10" s="8">
@@ -903,6 +2030,9 @@
       <c r="M10" s="9">
         <v>129</v>
       </c>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" customHeight="1" ht="18">
       <c r="A11" s="8">
@@ -944,6 +2074,9 @@
       <c r="M11" s="9">
         <v>129</v>
       </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" customHeight="1" ht="18">
       <c r="A12" s="8">
@@ -985,6 +2118,9 @@
       <c r="M12" s="9">
         <v>129</v>
       </c>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" customHeight="1" ht="18">
       <c r="A13" s="8">
@@ -1026,6 +2162,9 @@
       <c r="M13" s="9">
         <v>194</v>
       </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" customHeight="1" ht="18">
       <c r="A14" s="8">
@@ -1067,6 +2206,9 @@
       <c r="M14" s="9">
         <v>87</v>
       </c>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" customHeight="1" ht="18">
       <c r="A15" s="8">
@@ -1108,6 +2250,9 @@
       <c r="M15" s="9">
         <v>87</v>
       </c>
+      <c r="N15" s="52"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" customHeight="1" ht="18">
       <c r="A16" s="8">
@@ -1149,6 +2294,9 @@
       <c r="M16" s="9">
         <v>87</v>
       </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" customHeight="1" ht="18">
       <c r="A17" s="8">
@@ -1190,6 +2338,9 @@
       <c r="M17" s="9">
         <v>87</v>
       </c>
+      <c r="N17" s="52"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
     </row>
     <row r="18" customHeight="1" ht="18">
       <c r="A18" s="8">
@@ -1231,6 +2382,9 @@
       <c r="M18" s="9">
         <v>87</v>
       </c>
+      <c r="N18" s="52"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" customHeight="1" ht="18">
       <c r="A19" s="8">
@@ -1272,6 +2426,9 @@
       <c r="M19" s="9">
         <v>87</v>
       </c>
+      <c r="N19" s="52"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" customHeight="1" ht="18">
       <c r="A20" s="8">
@@ -1313,6 +2470,9 @@
       <c r="M20" s="9">
         <v>87</v>
       </c>
+      <c r="N20" s="52"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" customHeight="1" ht="18">
       <c r="A21" s="8">
@@ -1354,6 +2514,9 @@
       <c r="M21" s="9">
         <v>65</v>
       </c>
+      <c r="N21" s="52"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" customHeight="1" ht="18">
       <c r="A22" s="8">
@@ -1395,6 +2558,9 @@
       <c r="M22" s="9">
         <v>87</v>
       </c>
+      <c r="N22" s="52"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" customHeight="1" ht="18">
       <c r="A23" s="8">
@@ -1436,6 +2602,9 @@
       <c r="M23" s="9">
         <v>130</v>
       </c>
+      <c r="N23" s="52"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" customHeight="1" ht="18">
       <c r="A24" s="8">
@@ -1477,6 +2646,9 @@
       <c r="M24" s="9">
         <v>65</v>
       </c>
+      <c r="N24" s="52"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" customHeight="1" ht="18">
       <c r="A25" s="8">
@@ -1518,6 +2690,9 @@
       <c r="M25" s="9">
         <v>65</v>
       </c>
+      <c r="N25" s="52"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" customHeight="1" ht="18">
       <c r="A26" s="8">
@@ -1559,6 +2734,9 @@
       <c r="M26" s="9">
         <v>65</v>
       </c>
+      <c r="N26" s="52"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
     </row>
     <row r="27" customHeight="1" ht="18">
       <c r="A27" s="8">
@@ -1600,6 +2778,9 @@
       <c r="M27" s="9">
         <v>65</v>
       </c>
+      <c r="N27" s="52"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" customHeight="1" ht="18">
       <c r="A28" s="8">
@@ -1641,6 +2822,9 @@
       <c r="M28" s="9">
         <v>65</v>
       </c>
+      <c r="N28" s="52"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
     </row>
     <row r="29" customHeight="1" ht="18">
       <c r="A29" s="8">
@@ -1682,6 +2866,9 @@
       <c r="M29" s="9">
         <v>65</v>
       </c>
+      <c r="N29" s="52"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="30" customHeight="1" ht="18">
       <c r="A30" s="8">
@@ -1723,6 +2910,9 @@
       <c r="M30" s="9">
         <v>65</v>
       </c>
+      <c r="N30" s="52"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" customHeight="1" ht="18">
       <c r="A31" s="8">
@@ -1764,6 +2954,9 @@
       <c r="M31" s="9">
         <v>65</v>
       </c>
+      <c r="N31" s="52"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" customHeight="1" ht="18">
       <c r="A32" s="8">
@@ -1805,6 +2998,9 @@
       <c r="M32" s="9">
         <v>87</v>
       </c>
+      <c r="N32" s="52"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" customHeight="1" ht="18">
       <c r="A33" s="8">
@@ -1846,6 +3042,9 @@
       <c r="M33" s="9">
         <v>87</v>
       </c>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
     </row>
     <row r="34" customHeight="1" ht="18">
       <c r="A34" s="8">
@@ -1887,6 +3086,9 @@
       <c r="M34" s="9">
         <v>87</v>
       </c>
+      <c r="N34" s="52"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="54"/>
     </row>
     <row r="35" customHeight="1" ht="18">
       <c r="A35" s="8">
@@ -1928,6 +3130,9 @@
       <c r="M35" s="9">
         <v>87</v>
       </c>
+      <c r="N35" s="52"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="54"/>
     </row>
     <row r="36" customHeight="1" ht="18">
       <c r="A36" s="8">
@@ -1969,6 +3174,9 @@
       <c r="M36" s="9">
         <v>87</v>
       </c>
+      <c r="N36" s="52"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="54"/>
     </row>
     <row r="37" customHeight="1" ht="18">
       <c r="A37" s="8">
@@ -2010,6 +3218,9 @@
       <c r="M37" s="9">
         <v>87</v>
       </c>
+      <c r="N37" s="52"/>
+      <c r="O37" s="53"/>
+      <c r="P37" s="54"/>
     </row>
     <row r="38" customHeight="1" ht="18">
       <c r="A38" s="8">
@@ -2051,6 +3262,9 @@
       <c r="M38" s="9">
         <v>87</v>
       </c>
+      <c r="N38" s="52"/>
+      <c r="O38" s="53"/>
+      <c r="P38" s="54"/>
     </row>
     <row r="39" customHeight="1" ht="18">
       <c r="A39" s="8">
@@ -2092,6 +3306,9 @@
       <c r="M39" s="9">
         <v>87</v>
       </c>
+      <c r="N39" s="52"/>
+      <c r="O39" s="53"/>
+      <c r="P39" s="54"/>
     </row>
     <row r="40" customHeight="1" ht="18">
       <c r="A40" s="8">
@@ -2133,6 +3350,9 @@
       <c r="M40" s="9">
         <v>65</v>
       </c>
+      <c r="N40" s="52"/>
+      <c r="O40" s="53"/>
+      <c r="P40" s="54"/>
     </row>
     <row r="41" customHeight="1" ht="18">
       <c r="A41" s="8">
@@ -2174,6 +3394,9 @@
       <c r="M41" s="9">
         <v>65</v>
       </c>
+      <c r="N41" s="52"/>
+      <c r="O41" s="53"/>
+      <c r="P41" s="54"/>
     </row>
     <row r="42" customHeight="1" ht="18">
       <c r="A42" s="8">
@@ -2215,6 +3438,9 @@
       <c r="M42" s="9">
         <v>65</v>
       </c>
+      <c r="N42" s="52"/>
+      <c r="O42" s="53"/>
+      <c r="P42" s="54"/>
     </row>
     <row r="43" customHeight="1" ht="18">
       <c r="A43" s="8">
@@ -2256,6 +3482,9 @@
       <c r="M43" s="9">
         <v>65</v>
       </c>
+      <c r="N43" s="52"/>
+      <c r="O43" s="53"/>
+      <c r="P43" s="54"/>
     </row>
     <row r="44" customHeight="1" ht="18">
       <c r="A44" s="8">
@@ -2297,6 +3526,9 @@
       <c r="M44" s="9">
         <v>65</v>
       </c>
+      <c r="N44" s="52"/>
+      <c r="O44" s="53"/>
+      <c r="P44" s="54"/>
     </row>
     <row r="45" customHeight="1" ht="18">
       <c r="A45" s="8">
@@ -2338,6 +3570,9 @@
       <c r="M45" s="9">
         <v>65</v>
       </c>
+      <c r="N45" s="52"/>
+      <c r="O45" s="53"/>
+      <c r="P45" s="54"/>
     </row>
     <row r="46" customHeight="1" ht="18">
       <c r="A46" s="8">
@@ -2379,6 +3614,9 @@
       <c r="M46" s="9">
         <v>65</v>
       </c>
+      <c r="N46" s="52"/>
+      <c r="O46" s="53"/>
+      <c r="P46" s="54"/>
     </row>
     <row r="47" customHeight="1" ht="18">
       <c r="A47" s="8">
@@ -2420,6 +3658,9 @@
       <c r="M47" s="9">
         <v>210</v>
       </c>
+      <c r="N47" s="52"/>
+      <c r="O47" s="53"/>
+      <c r="P47" s="54"/>
     </row>
     <row r="48" customHeight="1" ht="18">
       <c r="A48" s="8">
@@ -2461,6 +3702,9 @@
       <c r="M48" s="9">
         <v>210</v>
       </c>
+      <c r="N48" s="52"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="54"/>
     </row>
     <row r="49" customHeight="1" ht="18">
       <c r="A49" s="8">
@@ -2502,6 +3746,9 @@
       <c r="M49" s="9">
         <v>210</v>
       </c>
+      <c r="N49" s="52"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="54"/>
     </row>
     <row r="50" customHeight="1" ht="18">
       <c r="A50" s="8">
@@ -2543,6 +3790,9 @@
       <c r="M50" s="9">
         <v>210</v>
       </c>
+      <c r="N50" s="52"/>
+      <c r="O50" s="53"/>
+      <c r="P50" s="54"/>
     </row>
     <row r="51" customHeight="1" ht="18">
       <c r="A51" s="8">
@@ -2584,6 +3834,9 @@
       <c r="M51" s="9">
         <v>210</v>
       </c>
+      <c r="N51" s="52"/>
+      <c r="O51" s="53"/>
+      <c r="P51" s="54"/>
     </row>
     <row r="52" customHeight="1" ht="18">
       <c r="A52" s="8">
@@ -2625,6 +3878,9 @@
       <c r="M52" s="9">
         <v>210</v>
       </c>
+      <c r="N52" s="52"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="54"/>
     </row>
     <row r="53" customHeight="1" ht="18">
       <c r="A53" s="8">
@@ -2666,6 +3922,9 @@
       <c r="M53" s="9">
         <v>210</v>
       </c>
+      <c r="N53" s="52"/>
+      <c r="O53" s="53"/>
+      <c r="P53" s="54"/>
     </row>
     <row r="54" customHeight="1" ht="18">
       <c r="A54" s="8">
@@ -2707,6 +3966,9 @@
       <c r="M54" s="9">
         <v>210</v>
       </c>
+      <c r="N54" s="52"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="54"/>
     </row>
     <row r="55" customHeight="1" ht="18">
       <c r="A55" s="8">
@@ -2748,6 +4010,9 @@
       <c r="M55" s="9">
         <v>210</v>
       </c>
+      <c r="N55" s="52"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="54"/>
     </row>
     <row r="56" customHeight="1" ht="18">
       <c r="A56" s="8">
@@ -2789,6 +4054,9 @@
       <c r="M56" s="9">
         <v>210</v>
       </c>
+      <c r="N56" s="52"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="54"/>
     </row>
     <row r="57" customHeight="1" ht="18">
       <c r="A57" s="8">
@@ -2830,6 +4098,9 @@
       <c r="M57" s="9">
         <v>210</v>
       </c>
+      <c r="N57" s="52"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="54"/>
     </row>
     <row r="58" customHeight="1" ht="18">
       <c r="A58" s="8">
@@ -2871,6 +4142,9 @@
       <c r="M58" s="9">
         <v>210</v>
       </c>
+      <c r="N58" s="52"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="54"/>
     </row>
     <row r="59" customHeight="1" ht="18">
       <c r="A59" s="8">
@@ -2912,6 +4186,9 @@
       <c r="M59" s="9">
         <v>210</v>
       </c>
+      <c r="N59" s="52"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="54"/>
     </row>
     <row r="60" customHeight="1" ht="18">
       <c r="A60" s="8">
@@ -2953,6 +4230,9 @@
       <c r="M60" s="9">
         <v>210</v>
       </c>
+      <c r="N60" s="52"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="54"/>
     </row>
     <row r="61" customHeight="1" ht="18">
       <c r="A61" s="8">
@@ -2994,6 +4274,9 @@
       <c r="M61" s="9">
         <v>113</v>
       </c>
+      <c r="N61" s="52"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="54"/>
     </row>
     <row r="62" customHeight="1" ht="18">
       <c r="A62" s="8">
@@ -3035,6 +4318,9 @@
       <c r="M62" s="9">
         <v>113</v>
       </c>
+      <c r="N62" s="52"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="54"/>
     </row>
     <row r="63" customHeight="1" ht="18">
       <c r="A63" s="8">
@@ -3076,6 +4362,9 @@
       <c r="M63" s="9">
         <v>113</v>
       </c>
+      <c r="N63" s="52"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="54"/>
     </row>
     <row r="64" customHeight="1" ht="18">
       <c r="A64" s="8">
@@ -3117,6 +4406,9 @@
       <c r="M64" s="9">
         <v>113</v>
       </c>
+      <c r="N64" s="52"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="54"/>
     </row>
     <row r="65" customHeight="1" ht="18">
       <c r="A65" s="8">
@@ -3158,6 +4450,9 @@
       <c r="M65" s="9">
         <v>113</v>
       </c>
+      <c r="N65" s="52"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="54"/>
     </row>
     <row r="66" customHeight="1" ht="18">
       <c r="A66" s="8">
@@ -3199,6 +4494,9 @@
       <c r="M66" s="9">
         <v>113</v>
       </c>
+      <c r="N66" s="52"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="54"/>
     </row>
     <row r="67" customHeight="1" ht="18">
       <c r="A67" s="8">
@@ -3240,90 +4538,5143 @@
       <c r="M67" s="9">
         <v>113</v>
       </c>
+      <c r="N67" s="52"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="54"/>
     </row>
     <row r="68" customHeight="1" ht="18">
-      <c r="A68" s="8">
+      <c r="A68" s="86">
         <v>430</v>
       </c>
-      <c r="B68" s="8">
+      <c r="B68" s="86">
         <v>24000</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="87">
         <v>5.6</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="11" t="s">
+      <c r="D68" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="11" t="s">
+      <c r="H68" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="I68" s="9">
+      <c r="I68" s="87">
         <v>7</v>
       </c>
-      <c r="J68" s="9">
+      <c r="J68" s="87">
         <v>14</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="87">
         <v>57</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="87">
         <v>113</v>
       </c>
+      <c r="N68" s="52"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="54"/>
     </row>
     <row r="69" customHeight="1" ht="18">
-      <c r="A69" s="8">
+      <c r="A69" s="86">
         <v>430</v>
       </c>
-      <c r="B69" s="8">
+      <c r="B69" s="86">
         <v>24000</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="87">
         <v>8</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F69" s="11" t="s">
+      <c r="D69" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="11" t="s">
+      <c r="G69" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="H69" s="11" t="s">
+      <c r="H69" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="I69" s="9">
+      <c r="I69" s="87">
         <v>7</v>
       </c>
-      <c r="J69" s="9">
+      <c r="J69" s="87">
         <v>14</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="L69" s="9">
+      <c r="L69" s="87">
         <v>57</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M69" s="87">
         <v>113</v>
       </c>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="85"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="96"/>
+      <c r="B70" s="96"/>
+      <c r="C70" s="96"/>
+      <c r="D70" s="114">
+        <v>2.5</v>
+      </c>
+      <c r="E70" s="114">
+        <v>5</v>
+      </c>
+      <c r="F70" s="114">
+        <v>10</v>
+      </c>
+      <c r="G70" s="114">
+        <v>20</v>
+      </c>
+      <c r="H70" s="114">
+        <v>40</v>
+      </c>
+      <c r="I70" s="114">
+        <v>80</v>
+      </c>
+      <c r="J70" s="114">
+        <v>160</v>
+      </c>
+      <c r="K70" s="114">
+        <v>320</v>
+      </c>
+      <c r="L70" s="114">
+        <v>630</v>
+      </c>
+      <c r="M70" s="114">
+        <v>1250</v>
+      </c>
+      <c r="N70" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="O70" s="101"/>
+      <c r="P70" s="102"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="94">
+        <v>410</v>
+      </c>
+      <c r="B71" s="94">
+        <v>630</v>
+      </c>
+      <c r="C71" s="111">
+        <v>2</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G71" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H71" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I71" s="7">
+        <v>26</v>
+      </c>
+      <c r="J71" s="7">
+        <v>52</v>
+      </c>
+      <c r="K71" s="7">
+        <v>103</v>
+      </c>
+      <c r="L71" s="7">
+        <v>203</v>
+      </c>
+      <c r="M71" s="7">
+        <v>403</v>
+      </c>
+      <c r="N71" s="113"/>
+      <c r="O71" s="104"/>
+      <c r="P71" s="105"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="8">
+        <v>410</v>
+      </c>
+      <c r="B72" s="8">
+        <v>630</v>
+      </c>
+      <c r="C72" s="112">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F72" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G72" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H72" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I72" s="7">
+        <v>26</v>
+      </c>
+      <c r="J72" s="7">
+        <v>52</v>
+      </c>
+      <c r="K72" s="7">
+        <v>103</v>
+      </c>
+      <c r="L72" s="7">
+        <v>203</v>
+      </c>
+      <c r="M72" s="7">
+        <v>403</v>
+      </c>
+      <c r="N72" s="113"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="105"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="8">
+        <v>410</v>
+      </c>
+      <c r="B73" s="8">
+        <v>630</v>
+      </c>
+      <c r="C73" s="112">
+        <v>5.6</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G73" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H73" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I73" s="7">
+        <v>26</v>
+      </c>
+      <c r="J73" s="7">
+        <v>52</v>
+      </c>
+      <c r="K73" s="7">
+        <v>103</v>
+      </c>
+      <c r="L73" s="7">
+        <v>203</v>
+      </c>
+      <c r="M73" s="7">
+        <v>403</v>
+      </c>
+      <c r="N73" s="113"/>
+      <c r="O73" s="104"/>
+      <c r="P73" s="105"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="8">
+        <v>410</v>
+      </c>
+      <c r="B74" s="8">
+        <v>630</v>
+      </c>
+      <c r="C74" s="112">
+        <v>8</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F74" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G74" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H74" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I74" s="7">
+        <v>26</v>
+      </c>
+      <c r="J74" s="7">
+        <v>52</v>
+      </c>
+      <c r="K74" s="7">
+        <v>103</v>
+      </c>
+      <c r="L74" s="7">
+        <v>203</v>
+      </c>
+      <c r="M74" s="7">
+        <v>403</v>
+      </c>
+      <c r="N74" s="113"/>
+      <c r="O74" s="104"/>
+      <c r="P74" s="105"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="8">
+        <v>410</v>
+      </c>
+      <c r="B75" s="8">
+        <v>630</v>
+      </c>
+      <c r="C75" s="112">
+        <v>11</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G75" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H75" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I75" s="7">
+        <v>26</v>
+      </c>
+      <c r="J75" s="7">
+        <v>52</v>
+      </c>
+      <c r="K75" s="7">
+        <v>103</v>
+      </c>
+      <c r="L75" s="7">
+        <v>203</v>
+      </c>
+      <c r="M75" s="7">
+        <v>403</v>
+      </c>
+      <c r="N75" s="113"/>
+      <c r="O75" s="104"/>
+      <c r="P75" s="105"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="8">
+        <v>410</v>
+      </c>
+      <c r="B76" s="8">
+        <v>630</v>
+      </c>
+      <c r="C76" s="112">
+        <v>16</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F76" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G76" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H76" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I76" s="7">
+        <v>26</v>
+      </c>
+      <c r="J76" s="7">
+        <v>52</v>
+      </c>
+      <c r="K76" s="7">
+        <v>103</v>
+      </c>
+      <c r="L76" s="7">
+        <v>203</v>
+      </c>
+      <c r="M76" s="7">
+        <v>403</v>
+      </c>
+      <c r="N76" s="113"/>
+      <c r="O76" s="104"/>
+      <c r="P76" s="105"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="8">
+        <v>410</v>
+      </c>
+      <c r="B77" s="8">
+        <v>630</v>
+      </c>
+      <c r="C77" s="112">
+        <v>22</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F77" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G77" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H77" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I77" s="7">
+        <v>26</v>
+      </c>
+      <c r="J77" s="7">
+        <v>52</v>
+      </c>
+      <c r="K77" s="7">
+        <v>103</v>
+      </c>
+      <c r="L77" s="7">
+        <v>203</v>
+      </c>
+      <c r="M77" s="7">
+        <v>403</v>
+      </c>
+      <c r="N77" s="113"/>
+      <c r="O77" s="104"/>
+      <c r="P77" s="105"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="8">
+        <v>410</v>
+      </c>
+      <c r="B78" s="8">
+        <v>630</v>
+      </c>
+      <c r="C78" s="112">
+        <v>32</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G78" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H78" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I78" s="7">
+        <v>26</v>
+      </c>
+      <c r="J78" s="7">
+        <v>52</v>
+      </c>
+      <c r="K78" s="7">
+        <v>103</v>
+      </c>
+      <c r="L78" s="7">
+        <v>203</v>
+      </c>
+      <c r="M78" s="7">
+        <v>403</v>
+      </c>
+      <c r="N78" s="113"/>
+      <c r="O78" s="104"/>
+      <c r="P78" s="105"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="8">
+        <v>410</v>
+      </c>
+      <c r="B79" s="8">
+        <v>630</v>
+      </c>
+      <c r="C79" s="112">
+        <v>45</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F79" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G79" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="H79" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="I79" s="7">
+        <v>26</v>
+      </c>
+      <c r="J79" s="7">
+        <v>52</v>
+      </c>
+      <c r="K79" s="7">
+        <v>103</v>
+      </c>
+      <c r="L79" s="7">
+        <v>203</v>
+      </c>
+      <c r="M79" s="7">
+        <v>403</v>
+      </c>
+      <c r="N79" s="113"/>
+      <c r="O79" s="104"/>
+      <c r="P79" s="105"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="8">
+        <v>410</v>
+      </c>
+      <c r="B80" s="8">
+        <v>630</v>
+      </c>
+      <c r="C80" s="112">
+        <v>63</v>
+      </c>
+      <c r="D80" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F80" s="115">
+        <v>3.2</v>
+      </c>
+      <c r="G80" s="115">
+        <v>6.5</v>
+      </c>
+      <c r="H80" s="115">
+        <v>12.9</v>
+      </c>
+      <c r="I80" s="115">
+        <v>26</v>
+      </c>
+      <c r="J80" s="115">
+        <v>52</v>
+      </c>
+      <c r="K80" s="115">
+        <v>103</v>
+      </c>
+      <c r="L80" s="115">
+        <v>203</v>
+      </c>
+      <c r="M80" s="115">
+        <v>403</v>
+      </c>
+      <c r="N80" s="113"/>
+      <c r="O80" s="104"/>
+      <c r="P80" s="105"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="8">
+        <v>410</v>
+      </c>
+      <c r="B81" s="8">
+        <v>630</v>
+      </c>
+      <c r="C81" s="112">
+        <v>90</v>
+      </c>
+      <c r="D81" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="115">
+        <v>2.4</v>
+      </c>
+      <c r="F81" s="115">
+        <v>4.9</v>
+      </c>
+      <c r="G81" s="115">
+        <v>9.7</v>
+      </c>
+      <c r="H81" s="115">
+        <v>19</v>
+      </c>
+      <c r="I81" s="115">
+        <v>39</v>
+      </c>
+      <c r="J81" s="115">
+        <v>78</v>
+      </c>
+      <c r="K81" s="115">
+        <v>155</v>
+      </c>
+      <c r="L81" s="115">
+        <v>306</v>
+      </c>
+      <c r="M81" s="115">
+        <v>607</v>
+      </c>
+      <c r="N81" s="113"/>
+      <c r="O81" s="104"/>
+      <c r="P81" s="105"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="8">
+        <v>410</v>
+      </c>
+      <c r="B82" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C82" s="112">
+        <v>2</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G82" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H82" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I82" s="7">
+        <v>17</v>
+      </c>
+      <c r="J82" s="7">
+        <v>35</v>
+      </c>
+      <c r="K82" s="7">
+        <v>70</v>
+      </c>
+      <c r="L82" s="7">
+        <v>137</v>
+      </c>
+      <c r="M82" s="7">
+        <v>270</v>
+      </c>
+      <c r="N82" s="113"/>
+      <c r="O82" s="104"/>
+      <c r="P82" s="105"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="8">
+        <v>410</v>
+      </c>
+      <c r="B83" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C83" s="112">
+        <v>4</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G83" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H83" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I83" s="7">
+        <v>17</v>
+      </c>
+      <c r="J83" s="7">
+        <v>35</v>
+      </c>
+      <c r="K83" s="7">
+        <v>70</v>
+      </c>
+      <c r="L83" s="7">
+        <v>137</v>
+      </c>
+      <c r="M83" s="7">
+        <v>270</v>
+      </c>
+      <c r="N83" s="113"/>
+      <c r="O83" s="104"/>
+      <c r="P83" s="105"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="8">
+        <v>410</v>
+      </c>
+      <c r="B84" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C84" s="112">
+        <v>5.6</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F84" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G84" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H84" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I84" s="7">
+        <v>17</v>
+      </c>
+      <c r="J84" s="7">
+        <v>35</v>
+      </c>
+      <c r="K84" s="7">
+        <v>70</v>
+      </c>
+      <c r="L84" s="7">
+        <v>137</v>
+      </c>
+      <c r="M84" s="7">
+        <v>270</v>
+      </c>
+      <c r="N84" s="113"/>
+      <c r="O84" s="104"/>
+      <c r="P84" s="105"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="8">
+        <v>410</v>
+      </c>
+      <c r="B85" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C85" s="112">
+        <v>8</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G85" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H85" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I85" s="7">
+        <v>17</v>
+      </c>
+      <c r="J85" s="7">
+        <v>35</v>
+      </c>
+      <c r="K85" s="7">
+        <v>70</v>
+      </c>
+      <c r="L85" s="7">
+        <v>137</v>
+      </c>
+      <c r="M85" s="7">
+        <v>270</v>
+      </c>
+      <c r="N85" s="113"/>
+      <c r="O85" s="104"/>
+      <c r="P85" s="105"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="8">
+        <v>410</v>
+      </c>
+      <c r="B86" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C86" s="112">
+        <v>11</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F86" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G86" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H86" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I86" s="7">
+        <v>17</v>
+      </c>
+      <c r="J86" s="7">
+        <v>35</v>
+      </c>
+      <c r="K86" s="7">
+        <v>70</v>
+      </c>
+      <c r="L86" s="7">
+        <v>137</v>
+      </c>
+      <c r="M86" s="7">
+        <v>270</v>
+      </c>
+      <c r="N86" s="113"/>
+      <c r="O86" s="104"/>
+      <c r="P86" s="105"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="8">
+        <v>410</v>
+      </c>
+      <c r="B87" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C87" s="112">
+        <v>16</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F87" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G87" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H87" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I87" s="7">
+        <v>17</v>
+      </c>
+      <c r="J87" s="7">
+        <v>35</v>
+      </c>
+      <c r="K87" s="7">
+        <v>70</v>
+      </c>
+      <c r="L87" s="7">
+        <v>137</v>
+      </c>
+      <c r="M87" s="7">
+        <v>270</v>
+      </c>
+      <c r="N87" s="113"/>
+      <c r="O87" s="104"/>
+      <c r="P87" s="105"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="8">
+        <v>410</v>
+      </c>
+      <c r="B88" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C88" s="112">
+        <v>22</v>
+      </c>
+      <c r="D88" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F88" s="115">
+        <v>2.2</v>
+      </c>
+      <c r="G88" s="115">
+        <v>4.3</v>
+      </c>
+      <c r="H88" s="115">
+        <v>8.7</v>
+      </c>
+      <c r="I88" s="115">
+        <v>17</v>
+      </c>
+      <c r="J88" s="115">
+        <v>35</v>
+      </c>
+      <c r="K88" s="115">
+        <v>70</v>
+      </c>
+      <c r="L88" s="115">
+        <v>137</v>
+      </c>
+      <c r="M88" s="115">
+        <v>270</v>
+      </c>
+      <c r="N88" s="113"/>
+      <c r="O88" s="104"/>
+      <c r="P88" s="105"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="8">
+        <v>410</v>
+      </c>
+      <c r="B89" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C89" s="112">
+        <v>32</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H89" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I89" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J89" s="7">
+        <v>25</v>
+      </c>
+      <c r="K89" s="7">
+        <v>50</v>
+      </c>
+      <c r="L89" s="7">
+        <v>100</v>
+      </c>
+      <c r="M89" s="7">
+        <v>200</v>
+      </c>
+      <c r="N89" s="113"/>
+      <c r="O89" s="104"/>
+      <c r="P89" s="105"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="8">
+        <v>410</v>
+      </c>
+      <c r="B90" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C90" s="112">
+        <v>45</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F90" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G90" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="H90" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I90" s="7">
+        <v>17</v>
+      </c>
+      <c r="J90" s="7">
+        <v>35</v>
+      </c>
+      <c r="K90" s="7">
+        <v>70</v>
+      </c>
+      <c r="L90" s="7">
+        <v>137</v>
+      </c>
+      <c r="M90" s="7">
+        <v>270</v>
+      </c>
+      <c r="N90" s="113"/>
+      <c r="O90" s="104"/>
+      <c r="P90" s="105"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="8">
+        <v>410</v>
+      </c>
+      <c r="B91" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C91" s="112">
+        <v>63</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F91" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="G91" s="115">
+        <v>6.5</v>
+      </c>
+      <c r="H91" s="115">
+        <v>13</v>
+      </c>
+      <c r="I91" s="115">
+        <v>25</v>
+      </c>
+      <c r="J91" s="115">
+        <v>50</v>
+      </c>
+      <c r="K91" s="115">
+        <v>103</v>
+      </c>
+      <c r="L91" s="115">
+        <v>200</v>
+      </c>
+      <c r="M91" s="115">
+        <v>400</v>
+      </c>
+      <c r="N91" s="113"/>
+      <c r="O91" s="104"/>
+      <c r="P91" s="105"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="8">
+        <v>410</v>
+      </c>
+      <c r="B92" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C92" s="9">
+        <v>2</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F92" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H92" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I92" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J92" s="7">
+        <v>25</v>
+      </c>
+      <c r="K92" s="7">
+        <v>50</v>
+      </c>
+      <c r="L92" s="7">
+        <v>100</v>
+      </c>
+      <c r="M92" s="7">
+        <v>200</v>
+      </c>
+      <c r="N92" s="113"/>
+      <c r="O92" s="104"/>
+      <c r="P92" s="105"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="8">
+        <v>410</v>
+      </c>
+      <c r="B93" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C93" s="9">
+        <v>4</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F93" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H93" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I93" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J93" s="7">
+        <v>25</v>
+      </c>
+      <c r="K93" s="7">
+        <v>50</v>
+      </c>
+      <c r="L93" s="7">
+        <v>100</v>
+      </c>
+      <c r="M93" s="7">
+        <v>200</v>
+      </c>
+      <c r="N93" s="113"/>
+      <c r="O93" s="104"/>
+      <c r="P93" s="105"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="8">
+        <v>410</v>
+      </c>
+      <c r="B94" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C94" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F94" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H94" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I94" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J94" s="7">
+        <v>25</v>
+      </c>
+      <c r="K94" s="7">
+        <v>50</v>
+      </c>
+      <c r="L94" s="7">
+        <v>100</v>
+      </c>
+      <c r="M94" s="7">
+        <v>200</v>
+      </c>
+      <c r="N94" s="113"/>
+      <c r="O94" s="104"/>
+      <c r="P94" s="105"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="8">
+        <v>410</v>
+      </c>
+      <c r="B95" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C95" s="9">
+        <v>8</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F95" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H95" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I95" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J95" s="7">
+        <v>25</v>
+      </c>
+      <c r="K95" s="7">
+        <v>50</v>
+      </c>
+      <c r="L95" s="7">
+        <v>100</v>
+      </c>
+      <c r="M95" s="7">
+        <v>200</v>
+      </c>
+      <c r="N95" s="113"/>
+      <c r="O95" s="104"/>
+      <c r="P95" s="105"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="8">
+        <v>410</v>
+      </c>
+      <c r="B96" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C96" s="9">
+        <v>11</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F96" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H96" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I96" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J96" s="7">
+        <v>25</v>
+      </c>
+      <c r="K96" s="7">
+        <v>50</v>
+      </c>
+      <c r="L96" s="7">
+        <v>100</v>
+      </c>
+      <c r="M96" s="7">
+        <v>200</v>
+      </c>
+      <c r="N96" s="113"/>
+      <c r="O96" s="104"/>
+      <c r="P96" s="105"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="8">
+        <v>410</v>
+      </c>
+      <c r="B97" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C97" s="9">
+        <v>16</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F97" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H97" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I97" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J97" s="7">
+        <v>25</v>
+      </c>
+      <c r="K97" s="7">
+        <v>50</v>
+      </c>
+      <c r="L97" s="7">
+        <v>100</v>
+      </c>
+      <c r="M97" s="7">
+        <v>200</v>
+      </c>
+      <c r="N97" s="113"/>
+      <c r="O97" s="104"/>
+      <c r="P97" s="105"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="8">
+        <v>410</v>
+      </c>
+      <c r="B98" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C98" s="9">
+        <v>22</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F98" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="H98" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I98" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J98" s="7">
+        <v>25</v>
+      </c>
+      <c r="K98" s="7">
+        <v>50</v>
+      </c>
+      <c r="L98" s="7">
+        <v>100</v>
+      </c>
+      <c r="M98" s="7">
+        <v>200</v>
+      </c>
+      <c r="N98" s="113"/>
+      <c r="O98" s="104"/>
+      <c r="P98" s="105"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="8">
+        <v>410</v>
+      </c>
+      <c r="B99" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C99" s="9">
+        <v>32</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F99" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="G99" s="118">
+        <v>3.2</v>
+      </c>
+      <c r="H99" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I99" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J99" s="7">
+        <v>25</v>
+      </c>
+      <c r="K99" s="7">
+        <v>50</v>
+      </c>
+      <c r="L99" s="7">
+        <v>100</v>
+      </c>
+      <c r="M99" s="7">
+        <v>200</v>
+      </c>
+      <c r="N99" s="113"/>
+      <c r="O99" s="104"/>
+      <c r="P99" s="105"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="8">
+        <v>410</v>
+      </c>
+      <c r="B100" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C100" s="9">
+        <v>45</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F100" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G100" s="118">
+        <v>4.3</v>
+      </c>
+      <c r="H100" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I100" s="7">
+        <v>17</v>
+      </c>
+      <c r="J100" s="7">
+        <v>35</v>
+      </c>
+      <c r="K100" s="7">
+        <v>70</v>
+      </c>
+      <c r="L100" s="7">
+        <v>137</v>
+      </c>
+      <c r="M100" s="7">
+        <v>270</v>
+      </c>
+      <c r="N100" s="113"/>
+      <c r="O100" s="104"/>
+      <c r="P100" s="105"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="8">
+        <v>410</v>
+      </c>
+      <c r="B101" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C101" s="9">
+        <v>2</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F101" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G101" s="118">
+        <v>4.3</v>
+      </c>
+      <c r="H101" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I101" s="7">
+        <v>17</v>
+      </c>
+      <c r="J101" s="7">
+        <v>35</v>
+      </c>
+      <c r="K101" s="7">
+        <v>70</v>
+      </c>
+      <c r="L101" s="7">
+        <v>137</v>
+      </c>
+      <c r="M101" s="7">
+        <v>270</v>
+      </c>
+      <c r="N101" s="113"/>
+      <c r="O101" s="104"/>
+      <c r="P101" s="105"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="8">
+        <v>410</v>
+      </c>
+      <c r="B102" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C102" s="9">
+        <v>4</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G102" s="118">
+        <v>4.3</v>
+      </c>
+      <c r="H102" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I102" s="7">
+        <v>17</v>
+      </c>
+      <c r="J102" s="7">
+        <v>35</v>
+      </c>
+      <c r="K102" s="7">
+        <v>70</v>
+      </c>
+      <c r="L102" s="7">
+        <v>137</v>
+      </c>
+      <c r="M102" s="7">
+        <v>270</v>
+      </c>
+      <c r="N102" s="113"/>
+      <c r="O102" s="104"/>
+      <c r="P102" s="105"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="8">
+        <v>410</v>
+      </c>
+      <c r="B103" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C103" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E103" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="F103" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G103" s="118">
+        <v>4.3</v>
+      </c>
+      <c r="H103" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I103" s="7">
+        <v>17</v>
+      </c>
+      <c r="J103" s="7">
+        <v>35</v>
+      </c>
+      <c r="K103" s="7">
+        <v>70</v>
+      </c>
+      <c r="L103" s="7">
+        <v>137</v>
+      </c>
+      <c r="M103" s="7">
+        <v>270</v>
+      </c>
+      <c r="N103" s="113"/>
+      <c r="O103" s="104"/>
+      <c r="P103" s="105"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="8">
+        <v>410</v>
+      </c>
+      <c r="B104" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C104" s="9">
+        <v>8</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E104" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F104" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G104" s="122">
+        <v>4.3</v>
+      </c>
+      <c r="H104" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I104" s="7">
+        <v>17</v>
+      </c>
+      <c r="J104" s="7">
+        <v>35</v>
+      </c>
+      <c r="K104" s="7">
+        <v>70</v>
+      </c>
+      <c r="L104" s="7">
+        <v>137</v>
+      </c>
+      <c r="M104" s="7">
+        <v>270</v>
+      </c>
+      <c r="N104" s="103"/>
+      <c r="O104" s="104"/>
+      <c r="P104" s="105"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="8">
+        <v>410</v>
+      </c>
+      <c r="B105" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C105" s="9">
+        <v>11</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E105" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F105" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G105" s="122">
+        <v>4.3</v>
+      </c>
+      <c r="H105" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I105" s="7">
+        <v>17</v>
+      </c>
+      <c r="J105" s="7">
+        <v>35</v>
+      </c>
+      <c r="K105" s="7">
+        <v>70</v>
+      </c>
+      <c r="L105" s="7">
+        <v>137</v>
+      </c>
+      <c r="M105" s="7">
+        <v>270</v>
+      </c>
+      <c r="N105" s="103"/>
+      <c r="O105" s="104"/>
+      <c r="P105" s="105"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="8">
+        <v>410</v>
+      </c>
+      <c r="B106" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C106" s="9">
+        <v>16</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E106" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F106" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G106" s="122">
+        <v>4.3</v>
+      </c>
+      <c r="H106" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I106" s="7">
+        <v>17</v>
+      </c>
+      <c r="J106" s="7">
+        <v>35</v>
+      </c>
+      <c r="K106" s="7">
+        <v>70</v>
+      </c>
+      <c r="L106" s="7">
+        <v>137</v>
+      </c>
+      <c r="M106" s="7">
+        <v>270</v>
+      </c>
+      <c r="N106" s="103"/>
+      <c r="O106" s="104"/>
+      <c r="P106" s="105"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="8">
+        <v>410</v>
+      </c>
+      <c r="B107" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C107" s="9">
+        <v>22</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E107" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="7">
+        <v>2.2</v>
+      </c>
+      <c r="G107" s="122">
+        <v>4.3</v>
+      </c>
+      <c r="H107" s="7">
+        <v>8.7</v>
+      </c>
+      <c r="I107" s="7">
+        <v>17</v>
+      </c>
+      <c r="J107" s="7">
+        <v>35</v>
+      </c>
+      <c r="K107" s="7">
+        <v>70</v>
+      </c>
+      <c r="L107" s="7">
+        <v>137</v>
+      </c>
+      <c r="M107" s="7">
+        <v>270</v>
+      </c>
+      <c r="N107" s="103"/>
+      <c r="O107" s="104"/>
+      <c r="P107" s="105"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="8">
+        <v>410</v>
+      </c>
+      <c r="B108" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C108" s="9">
+        <v>32</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E108" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G108" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="H108" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I108" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J108" s="7">
+        <v>25</v>
+      </c>
+      <c r="K108" s="7">
+        <v>50</v>
+      </c>
+      <c r="L108" s="7">
+        <v>100</v>
+      </c>
+      <c r="M108" s="7">
+        <v>200</v>
+      </c>
+      <c r="N108" s="103"/>
+      <c r="O108" s="104"/>
+      <c r="P108" s="105"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="8">
+        <v>410</v>
+      </c>
+      <c r="B109" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C109" s="9">
+        <v>2</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G109" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="H109" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I109" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J109" s="7">
+        <v>25</v>
+      </c>
+      <c r="K109" s="7">
+        <v>50</v>
+      </c>
+      <c r="L109" s="7">
+        <v>100</v>
+      </c>
+      <c r="M109" s="7">
+        <v>200</v>
+      </c>
+      <c r="N109" s="103"/>
+      <c r="O109" s="104"/>
+      <c r="P109" s="105"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="8">
+        <v>410</v>
+      </c>
+      <c r="B110" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C110" s="9">
+        <v>4</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G110" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="H110" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I110" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J110" s="7">
+        <v>25</v>
+      </c>
+      <c r="K110" s="7">
+        <v>50</v>
+      </c>
+      <c r="L110" s="7">
+        <v>100</v>
+      </c>
+      <c r="M110" s="7">
+        <v>200</v>
+      </c>
+      <c r="N110" s="103"/>
+      <c r="O110" s="104"/>
+      <c r="P110" s="105"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="8">
+        <v>410</v>
+      </c>
+      <c r="B111" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C111" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E111" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G111" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="H111" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I111" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J111" s="7">
+        <v>25</v>
+      </c>
+      <c r="K111" s="7">
+        <v>50</v>
+      </c>
+      <c r="L111" s="7">
+        <v>100</v>
+      </c>
+      <c r="M111" s="7">
+        <v>200</v>
+      </c>
+      <c r="N111" s="103"/>
+      <c r="O111" s="104"/>
+      <c r="P111" s="105"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="8">
+        <v>410</v>
+      </c>
+      <c r="B112" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C112" s="9">
+        <v>8</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E112" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G112" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="H112" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I112" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J112" s="7">
+        <v>25</v>
+      </c>
+      <c r="K112" s="7">
+        <v>50</v>
+      </c>
+      <c r="L112" s="7">
+        <v>100</v>
+      </c>
+      <c r="M112" s="7">
+        <v>200</v>
+      </c>
+      <c r="N112" s="103"/>
+      <c r="O112" s="104"/>
+      <c r="P112" s="105"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8">
+        <v>410</v>
+      </c>
+      <c r="B113" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C113" s="9">
+        <v>11</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E113" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="122">
+        <v>3.2</v>
+      </c>
+      <c r="H113" s="7">
+        <v>6.3</v>
+      </c>
+      <c r="I113" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="J113" s="7">
+        <v>25</v>
+      </c>
+      <c r="K113" s="7">
+        <v>50</v>
+      </c>
+      <c r="L113" s="7">
+        <v>100</v>
+      </c>
+      <c r="M113" s="7">
+        <v>200</v>
+      </c>
+      <c r="N113" s="103"/>
+      <c r="O113" s="104"/>
+      <c r="P113" s="105"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="8">
+        <v>410</v>
+      </c>
+      <c r="B114" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C114" s="9">
+        <v>16</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E114" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="125" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="126">
+        <v>3.2</v>
+      </c>
+      <c r="H114" s="115">
+        <v>6.3</v>
+      </c>
+      <c r="I114" s="115">
+        <v>12.5</v>
+      </c>
+      <c r="J114" s="115">
+        <v>25</v>
+      </c>
+      <c r="K114" s="115">
+        <v>50</v>
+      </c>
+      <c r="L114" s="115">
+        <v>100</v>
+      </c>
+      <c r="M114" s="115">
+        <v>200</v>
+      </c>
+      <c r="N114" s="103"/>
+      <c r="O114" s="104"/>
+      <c r="P114" s="105"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="8">
+        <v>430</v>
+      </c>
+      <c r="B115" s="8">
+        <v>8000</v>
+      </c>
+      <c r="C115" s="9">
+        <v>22</v>
+      </c>
+      <c r="D115" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E115" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F115" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G115" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H115" s="7">
+        <v>20</v>
+      </c>
+      <c r="I115" s="7">
+        <v>42</v>
+      </c>
+      <c r="J115" s="7">
+        <v>85</v>
+      </c>
+      <c r="K115" s="7">
+        <v>170</v>
+      </c>
+      <c r="L115" s="7">
+        <v>330</v>
+      </c>
+      <c r="M115" s="7">
+        <v>660</v>
+      </c>
+      <c r="N115" s="113"/>
+      <c r="O115" s="104"/>
+      <c r="P115" s="105"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8">
+        <v>430</v>
+      </c>
+      <c r="B116" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C116" s="9">
+        <v>2</v>
+      </c>
+      <c r="D116" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F116" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G116" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H116" s="7">
+        <v>20</v>
+      </c>
+      <c r="I116" s="7">
+        <v>42</v>
+      </c>
+      <c r="J116" s="7">
+        <v>85</v>
+      </c>
+      <c r="K116" s="7">
+        <v>170</v>
+      </c>
+      <c r="L116" s="7">
+        <v>330</v>
+      </c>
+      <c r="M116" s="7">
+        <v>660</v>
+      </c>
+      <c r="N116" s="113"/>
+      <c r="O116" s="104"/>
+      <c r="P116" s="105"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="8">
+        <v>430</v>
+      </c>
+      <c r="B117" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C117" s="9">
+        <v>4</v>
+      </c>
+      <c r="D117" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E117" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F117" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G117" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H117" s="7">
+        <v>20</v>
+      </c>
+      <c r="I117" s="7">
+        <v>42</v>
+      </c>
+      <c r="J117" s="7">
+        <v>85</v>
+      </c>
+      <c r="K117" s="7">
+        <v>170</v>
+      </c>
+      <c r="L117" s="7">
+        <v>330</v>
+      </c>
+      <c r="M117" s="7">
+        <v>660</v>
+      </c>
+      <c r="N117" s="113"/>
+      <c r="O117" s="104"/>
+      <c r="P117" s="105"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8">
+        <v>430</v>
+      </c>
+      <c r="B118" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C118" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D118" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E118" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F118" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G118" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H118" s="7">
+        <v>20</v>
+      </c>
+      <c r="I118" s="7">
+        <v>42</v>
+      </c>
+      <c r="J118" s="7">
+        <v>85</v>
+      </c>
+      <c r="K118" s="7">
+        <v>170</v>
+      </c>
+      <c r="L118" s="7">
+        <v>330</v>
+      </c>
+      <c r="M118" s="7">
+        <v>660</v>
+      </c>
+      <c r="N118" s="113"/>
+      <c r="O118" s="104"/>
+      <c r="P118" s="105"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="8">
+        <v>430</v>
+      </c>
+      <c r="B119" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C119" s="9">
+        <v>8</v>
+      </c>
+      <c r="D119" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E119" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F119" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G119" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H119" s="7">
+        <v>20</v>
+      </c>
+      <c r="I119" s="7">
+        <v>42</v>
+      </c>
+      <c r="J119" s="7">
+        <v>85</v>
+      </c>
+      <c r="K119" s="7">
+        <v>170</v>
+      </c>
+      <c r="L119" s="7">
+        <v>330</v>
+      </c>
+      <c r="M119" s="7">
+        <v>660</v>
+      </c>
+      <c r="N119" s="113"/>
+      <c r="O119" s="104"/>
+      <c r="P119" s="105"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="8">
+        <v>430</v>
+      </c>
+      <c r="B120" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C120" s="9">
+        <v>11</v>
+      </c>
+      <c r="D120" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E120" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F120" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G120" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H120" s="7">
+        <v>20</v>
+      </c>
+      <c r="I120" s="7">
+        <v>42</v>
+      </c>
+      <c r="J120" s="7">
+        <v>85</v>
+      </c>
+      <c r="K120" s="7">
+        <v>170</v>
+      </c>
+      <c r="L120" s="7">
+        <v>330</v>
+      </c>
+      <c r="M120" s="7">
+        <v>660</v>
+      </c>
+      <c r="N120" s="113"/>
+      <c r="O120" s="104"/>
+      <c r="P120" s="105"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="8">
+        <v>430</v>
+      </c>
+      <c r="B121" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C121" s="9">
+        <v>16</v>
+      </c>
+      <c r="D121" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F121" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G121" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H121" s="7">
+        <v>20</v>
+      </c>
+      <c r="I121" s="7">
+        <v>42</v>
+      </c>
+      <c r="J121" s="7">
+        <v>85</v>
+      </c>
+      <c r="K121" s="7">
+        <v>170</v>
+      </c>
+      <c r="L121" s="7">
+        <v>330</v>
+      </c>
+      <c r="M121" s="7">
+        <v>660</v>
+      </c>
+      <c r="N121" s="113"/>
+      <c r="O121" s="104"/>
+      <c r="P121" s="105"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8">
+        <v>430</v>
+      </c>
+      <c r="B122" s="8">
+        <v>12000</v>
+      </c>
+      <c r="C122" s="9">
+        <v>22</v>
+      </c>
+      <c r="D122" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="7">
+        <v>2.6</v>
+      </c>
+      <c r="F122" s="7">
+        <v>5.3</v>
+      </c>
+      <c r="G122" s="7">
+        <v>10.5</v>
+      </c>
+      <c r="H122" s="7">
+        <v>20</v>
+      </c>
+      <c r="I122" s="7">
+        <v>42</v>
+      </c>
+      <c r="J122" s="7">
+        <v>85</v>
+      </c>
+      <c r="K122" s="7">
+        <v>170</v>
+      </c>
+      <c r="L122" s="7">
+        <v>330</v>
+      </c>
+      <c r="M122" s="7">
+        <v>660</v>
+      </c>
+      <c r="N122" s="113"/>
+      <c r="O122" s="104"/>
+      <c r="P122" s="105"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="8">
+        <v>430</v>
+      </c>
+      <c r="B123" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C123" s="9">
+        <v>2</v>
+      </c>
+      <c r="D123" s="124" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="115">
+        <v>2.6</v>
+      </c>
+      <c r="F123" s="115">
+        <v>5.3</v>
+      </c>
+      <c r="G123" s="115">
+        <v>10.5</v>
+      </c>
+      <c r="H123" s="115">
+        <v>20</v>
+      </c>
+      <c r="I123" s="115">
+        <v>42</v>
+      </c>
+      <c r="J123" s="115">
+        <v>85</v>
+      </c>
+      <c r="K123" s="115">
+        <v>170</v>
+      </c>
+      <c r="L123" s="115">
+        <v>330</v>
+      </c>
+      <c r="M123" s="115">
+        <v>660</v>
+      </c>
+      <c r="N123" s="113"/>
+      <c r="O123" s="104"/>
+      <c r="P123" s="105"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="8">
+        <v>430</v>
+      </c>
+      <c r="B124" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C124" s="112">
+        <v>4</v>
+      </c>
+      <c r="D124" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E124" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="118">
+        <v>3.8</v>
+      </c>
+      <c r="G124" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H124" s="7">
+        <v>15</v>
+      </c>
+      <c r="I124" s="7">
+        <v>30</v>
+      </c>
+      <c r="J124" s="7">
+        <v>60</v>
+      </c>
+      <c r="K124" s="7">
+        <v>120</v>
+      </c>
+      <c r="L124" s="7">
+        <v>237</v>
+      </c>
+      <c r="M124" s="7">
+        <v>471</v>
+      </c>
+      <c r="N124" s="113"/>
+      <c r="O124" s="104"/>
+      <c r="P124" s="105"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="8">
+        <v>430</v>
+      </c>
+      <c r="B125" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C125" s="112">
+        <v>5.6</v>
+      </c>
+      <c r="D125" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E125" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="118">
+        <v>3.8</v>
+      </c>
+      <c r="G125" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H125" s="7">
+        <v>15</v>
+      </c>
+      <c r="I125" s="7">
+        <v>30</v>
+      </c>
+      <c r="J125" s="7">
+        <v>60</v>
+      </c>
+      <c r="K125" s="7">
+        <v>120</v>
+      </c>
+      <c r="L125" s="7">
+        <v>237</v>
+      </c>
+      <c r="M125" s="7">
+        <v>471</v>
+      </c>
+      <c r="N125" s="113"/>
+      <c r="O125" s="104"/>
+      <c r="P125" s="105"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="8">
+        <v>430</v>
+      </c>
+      <c r="B126" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C126" s="112">
+        <v>8</v>
+      </c>
+      <c r="D126" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E126" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" s="118">
+        <v>3.8</v>
+      </c>
+      <c r="G126" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H126" s="7">
+        <v>15</v>
+      </c>
+      <c r="I126" s="7">
+        <v>30</v>
+      </c>
+      <c r="J126" s="7">
+        <v>60</v>
+      </c>
+      <c r="K126" s="7">
+        <v>120</v>
+      </c>
+      <c r="L126" s="7">
+        <v>237</v>
+      </c>
+      <c r="M126" s="7">
+        <v>471</v>
+      </c>
+      <c r="N126" s="113"/>
+      <c r="O126" s="104"/>
+      <c r="P126" s="105"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="8">
+        <v>430</v>
+      </c>
+      <c r="B127" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C127" s="112">
+        <v>11</v>
+      </c>
+      <c r="D127" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="E127" s="115" t="s">
+        <v>3</v>
+      </c>
+      <c r="F127" s="134">
+        <v>3.8</v>
+      </c>
+      <c r="G127" s="115">
+        <v>7.5</v>
+      </c>
+      <c r="H127" s="115">
+        <v>15</v>
+      </c>
+      <c r="I127" s="115">
+        <v>30</v>
+      </c>
+      <c r="J127" s="115">
+        <v>60</v>
+      </c>
+      <c r="K127" s="115">
+        <v>120</v>
+      </c>
+      <c r="L127" s="115">
+        <v>237</v>
+      </c>
+      <c r="M127" s="115">
+        <v>471</v>
+      </c>
+      <c r="N127" s="113"/>
+      <c r="O127" s="104"/>
+      <c r="P127" s="105"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="8">
+        <v>430</v>
+      </c>
+      <c r="B128" s="8">
+        <v>16000</v>
+      </c>
+      <c r="C128" s="112">
+        <v>16</v>
+      </c>
+      <c r="D128" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F128" s="120">
+        <v>3.8</v>
+      </c>
+      <c r="G128" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="H128" s="7">
+        <v>15</v>
+      </c>
+      <c r="I128" s="7">
+        <v>30</v>
+      </c>
+      <c r="J128" s="7">
+        <v>60</v>
+      </c>
+      <c r="K128" s="7">
+        <v>120</v>
+      </c>
+      <c r="L128" s="7">
+        <v>237</v>
+      </c>
+      <c r="M128" s="7">
+        <v>471</v>
+      </c>
+      <c r="N128" s="113"/>
+      <c r="O128" s="104"/>
+      <c r="P128" s="105"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="8">
+        <v>430</v>
+      </c>
+      <c r="B129" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C129" s="9">
+        <v>2</v>
+      </c>
+      <c r="D129" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G129" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H129" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I129" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J129" s="7">
+        <v>45</v>
+      </c>
+      <c r="K129" s="7">
+        <v>90</v>
+      </c>
+      <c r="L129" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M129" s="7">
+        <v>352</v>
+      </c>
+      <c r="N129" s="113"/>
+      <c r="O129" s="104"/>
+      <c r="P129" s="105"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="8">
+        <v>430</v>
+      </c>
+      <c r="B130" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C130" s="9">
+        <v>4</v>
+      </c>
+      <c r="D130" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E130" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F130" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G130" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H130" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I130" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J130" s="7">
+        <v>45</v>
+      </c>
+      <c r="K130" s="7">
+        <v>90</v>
+      </c>
+      <c r="L130" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M130" s="7">
+        <v>352</v>
+      </c>
+      <c r="N130" s="113"/>
+      <c r="O130" s="104"/>
+      <c r="P130" s="105"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="8">
+        <v>430</v>
+      </c>
+      <c r="B131" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C131" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="D131" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E131" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F131" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G131" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H131" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I131" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J131" s="7">
+        <v>45</v>
+      </c>
+      <c r="K131" s="7">
+        <v>90</v>
+      </c>
+      <c r="L131" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M131" s="7">
+        <v>352</v>
+      </c>
+      <c r="N131" s="113"/>
+      <c r="O131" s="104"/>
+      <c r="P131" s="105"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="8">
+        <v>430</v>
+      </c>
+      <c r="B132" s="8">
+        <v>20000</v>
+      </c>
+      <c r="C132" s="9">
+        <v>8</v>
+      </c>
+      <c r="D132" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E132" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F132" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G132" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H132" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I132" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J132" s="7">
+        <v>45</v>
+      </c>
+      <c r="K132" s="7">
+        <v>90</v>
+      </c>
+      <c r="L132" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M132" s="7">
+        <v>352</v>
+      </c>
+      <c r="N132" s="113"/>
+      <c r="O132" s="104"/>
+      <c r="P132" s="105"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="86">
+        <v>430</v>
+      </c>
+      <c r="B133" s="86">
+        <v>20000</v>
+      </c>
+      <c r="C133" s="87">
+        <v>11</v>
+      </c>
+      <c r="D133" s="119" t="s">
+        <v>3</v>
+      </c>
+      <c r="E133" s="120" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G133" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H133" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I133" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J133" s="7">
+        <v>45</v>
+      </c>
+      <c r="K133" s="7">
+        <v>90</v>
+      </c>
+      <c r="L133" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M133" s="7">
+        <v>352</v>
+      </c>
+      <c r="N133" s="113"/>
+      <c r="O133" s="104"/>
+      <c r="P133" s="105"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="8">
+        <v>430</v>
+      </c>
+      <c r="B134" s="8">
+        <v>24000</v>
+      </c>
+      <c r="C134" s="9">
+        <v>2</v>
+      </c>
+      <c r="D134" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E134" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F134" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G134" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H134" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I134" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J134" s="7">
+        <v>45</v>
+      </c>
+      <c r="K134" s="7">
+        <v>90</v>
+      </c>
+      <c r="L134" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M134" s="7">
+        <v>352</v>
+      </c>
+      <c r="N134" s="113"/>
+      <c r="O134" s="104"/>
+      <c r="P134" s="105"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="8">
+        <v>430</v>
+      </c>
+      <c r="B135" s="8">
+        <v>24000</v>
+      </c>
+      <c r="C135" s="9">
+        <v>4</v>
+      </c>
+      <c r="D135" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F135" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G135" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H135" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I135" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J135" s="7">
+        <v>45</v>
+      </c>
+      <c r="K135" s="7">
+        <v>90</v>
+      </c>
+      <c r="L135" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M135" s="7">
+        <v>352</v>
+      </c>
+      <c r="N135" s="113"/>
+      <c r="O135" s="104"/>
+      <c r="P135" s="105"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="131">
+        <v>430</v>
+      </c>
+      <c r="B136" s="131">
+        <v>24000</v>
+      </c>
+      <c r="C136" s="132">
+        <v>5.6</v>
+      </c>
+      <c r="D136" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E136" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F136" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G136" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H136" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I136" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J136" s="7">
+        <v>45</v>
+      </c>
+      <c r="K136" s="7">
+        <v>90</v>
+      </c>
+      <c r="L136" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M136" s="7">
+        <v>352</v>
+      </c>
+      <c r="N136" s="113"/>
+      <c r="O136" s="104"/>
+      <c r="P136" s="105"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="131">
+        <v>430</v>
+      </c>
+      <c r="B137" s="131">
+        <v>24000</v>
+      </c>
+      <c r="C137" s="132">
+        <v>8</v>
+      </c>
+      <c r="D137" s="117" t="s">
+        <v>3</v>
+      </c>
+      <c r="E137" s="128" t="s">
+        <v>3</v>
+      </c>
+      <c r="F137" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="G137" s="7">
+        <v>5.6</v>
+      </c>
+      <c r="H137" s="7">
+        <v>11.3</v>
+      </c>
+      <c r="I137" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="J137" s="7">
+        <v>45</v>
+      </c>
+      <c r="K137" s="7">
+        <v>90</v>
+      </c>
+      <c r="L137" s="7">
+        <v>177.5</v>
+      </c>
+      <c r="M137" s="7">
+        <v>352</v>
+      </c>
+      <c r="N137" s="133"/>
+      <c r="O137" s="107"/>
+      <c r="P137" s="108"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="110"/>
+      <c r="E138" s="110"/>
+      <c r="F138" s="110"/>
+      <c r="G138" s="110"/>
+      <c r="H138" s="110"/>
+      <c r="I138" s="110"/>
+      <c r="J138" s="110"/>
+      <c r="K138" s="110"/>
+      <c r="L138" s="110"/>
+      <c r="M138" s="110"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="110"/>
+      <c r="E139" s="110"/>
+      <c r="F139" s="110"/>
+      <c r="G139" s="110"/>
+      <c r="H139" s="110"/>
+      <c r="I139" s="110"/>
+      <c r="J139" s="110"/>
+      <c r="K139" s="110"/>
+      <c r="L139" s="110"/>
+      <c r="M139" s="110"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="110"/>
+      <c r="E140" s="110"/>
+      <c r="F140" s="110"/>
+      <c r="G140" s="110"/>
+      <c r="H140" s="110"/>
+      <c r="I140" s="110"/>
+      <c r="J140" s="110"/>
+      <c r="K140" s="110"/>
+      <c r="L140" s="110"/>
+      <c r="M140" s="110"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="110"/>
+      <c r="E141" s="110"/>
+      <c r="F141" s="110"/>
+      <c r="G141" s="110"/>
+      <c r="H141" s="110"/>
+      <c r="I141" s="110"/>
+      <c r="J141" s="110"/>
+      <c r="K141" s="110"/>
+      <c r="L141" s="110"/>
+      <c r="M141" s="110"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="110"/>
+      <c r="E142" s="110"/>
+      <c r="F142" s="110"/>
+      <c r="G142" s="110"/>
+      <c r="H142" s="110"/>
+      <c r="I142" s="110"/>
+      <c r="J142" s="110"/>
+      <c r="K142" s="110"/>
+      <c r="L142" s="110"/>
+      <c r="M142" s="110"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="110"/>
+      <c r="E143" s="110"/>
+      <c r="F143" s="110"/>
+      <c r="G143" s="110"/>
+      <c r="H143" s="110"/>
+      <c r="I143" s="110"/>
+      <c r="J143" s="110"/>
+      <c r="K143" s="110"/>
+      <c r="L143" s="110"/>
+      <c r="M143" s="110"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="110"/>
+      <c r="E144" s="110"/>
+      <c r="F144" s="110"/>
+      <c r="G144" s="110"/>
+      <c r="H144" s="110"/>
+      <c r="I144" s="110"/>
+      <c r="J144" s="110"/>
+      <c r="K144" s="110"/>
+      <c r="L144" s="110"/>
+      <c r="M144" s="110"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="110"/>
+      <c r="E145" s="110"/>
+      <c r="F145" s="110"/>
+      <c r="G145" s="110"/>
+      <c r="H145" s="110"/>
+      <c r="I145" s="110"/>
+      <c r="J145" s="110"/>
+      <c r="K145" s="110"/>
+      <c r="L145" s="110"/>
+      <c r="M145" s="110"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="110"/>
+      <c r="E146" s="110"/>
+      <c r="F146" s="110"/>
+      <c r="G146" s="110"/>
+      <c r="H146" s="110"/>
+      <c r="I146" s="110"/>
+      <c r="J146" s="110"/>
+      <c r="K146" s="110"/>
+      <c r="L146" s="110"/>
+      <c r="M146" s="110"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="110"/>
+      <c r="E147" s="110"/>
+      <c r="F147" s="110"/>
+      <c r="G147" s="110"/>
+      <c r="H147" s="110"/>
+      <c r="I147" s="110"/>
+      <c r="J147" s="110"/>
+      <c r="K147" s="110"/>
+      <c r="L147" s="110"/>
+      <c r="M147" s="110"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="110"/>
+      <c r="E148" s="110"/>
+      <c r="F148" s="110"/>
+      <c r="G148" s="110"/>
+      <c r="H148" s="110"/>
+      <c r="I148" s="110"/>
+      <c r="J148" s="110"/>
+      <c r="K148" s="110"/>
+      <c r="L148" s="110"/>
+      <c r="M148" s="110"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="110"/>
+      <c r="E149" s="110"/>
+      <c r="F149" s="110"/>
+      <c r="G149" s="110"/>
+      <c r="H149" s="110"/>
+      <c r="I149" s="110"/>
+      <c r="J149" s="110"/>
+      <c r="K149" s="110"/>
+      <c r="L149" s="110"/>
+      <c r="M149" s="110"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="110"/>
+      <c r="E150" s="110"/>
+      <c r="F150" s="110"/>
+      <c r="G150" s="110"/>
+      <c r="H150" s="110"/>
+      <c r="I150" s="110"/>
+      <c r="J150" s="110"/>
+      <c r="K150" s="110"/>
+      <c r="L150" s="110"/>
+      <c r="M150" s="110"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="110"/>
+      <c r="E151" s="110"/>
+      <c r="F151" s="110"/>
+      <c r="G151" s="110"/>
+      <c r="H151" s="110"/>
+      <c r="I151" s="110"/>
+      <c r="J151" s="110"/>
+      <c r="K151" s="110"/>
+      <c r="L151" s="110"/>
+      <c r="M151" s="110"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="110"/>
+      <c r="E152" s="110"/>
+      <c r="F152" s="110"/>
+      <c r="G152" s="110"/>
+      <c r="H152" s="110"/>
+      <c r="I152" s="110"/>
+      <c r="J152" s="110"/>
+      <c r="K152" s="110"/>
+      <c r="L152" s="110"/>
+      <c r="M152" s="110"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="110"/>
+      <c r="E153" s="110"/>
+      <c r="F153" s="110"/>
+      <c r="G153" s="110"/>
+      <c r="H153" s="110"/>
+      <c r="I153" s="110"/>
+      <c r="J153" s="110"/>
+      <c r="K153" s="110"/>
+      <c r="L153" s="110"/>
+      <c r="M153" s="110"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="110"/>
+      <c r="E154" s="110"/>
+      <c r="F154" s="110"/>
+      <c r="G154" s="110"/>
+      <c r="H154" s="110"/>
+      <c r="I154" s="110"/>
+      <c r="J154" s="110"/>
+      <c r="K154" s="110"/>
+      <c r="L154" s="110"/>
+      <c r="M154" s="110"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="110"/>
+      <c r="E155" s="110"/>
+      <c r="F155" s="110"/>
+      <c r="G155" s="110"/>
+      <c r="H155" s="110"/>
+      <c r="I155" s="110"/>
+      <c r="J155" s="110"/>
+      <c r="K155" s="110"/>
+      <c r="L155" s="110"/>
+      <c r="M155" s="110"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="110"/>
+      <c r="E156" s="110"/>
+      <c r="F156" s="110"/>
+      <c r="G156" s="110"/>
+      <c r="H156" s="110"/>
+      <c r="I156" s="110"/>
+      <c r="J156" s="110"/>
+      <c r="K156" s="110"/>
+      <c r="L156" s="110"/>
+      <c r="M156" s="110"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="110"/>
+      <c r="E157" s="110"/>
+      <c r="F157" s="110"/>
+      <c r="G157" s="110"/>
+      <c r="H157" s="110"/>
+      <c r="I157" s="110"/>
+      <c r="J157" s="110"/>
+      <c r="K157" s="110"/>
+      <c r="L157" s="110"/>
+      <c r="M157" s="110"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="110"/>
+      <c r="E158" s="110"/>
+      <c r="F158" s="110"/>
+      <c r="G158" s="110"/>
+      <c r="H158" s="110"/>
+      <c r="I158" s="110"/>
+      <c r="J158" s="110"/>
+      <c r="K158" s="110"/>
+      <c r="L158" s="110"/>
+      <c r="M158" s="110"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="110"/>
+      <c r="E159" s="110"/>
+      <c r="F159" s="110"/>
+      <c r="G159" s="110"/>
+      <c r="H159" s="110"/>
+      <c r="I159" s="110"/>
+      <c r="J159" s="110"/>
+      <c r="K159" s="110"/>
+      <c r="L159" s="110"/>
+      <c r="M159" s="110"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="110"/>
+      <c r="E160" s="110"/>
+      <c r="F160" s="110"/>
+      <c r="G160" s="110"/>
+      <c r="H160" s="110"/>
+      <c r="I160" s="110"/>
+      <c r="J160" s="110"/>
+      <c r="K160" s="110"/>
+      <c r="L160" s="110"/>
+      <c r="M160" s="110"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="110"/>
+      <c r="E161" s="110"/>
+      <c r="F161" s="110"/>
+      <c r="G161" s="110"/>
+      <c r="H161" s="110"/>
+      <c r="I161" s="110"/>
+      <c r="J161" s="110"/>
+      <c r="K161" s="110"/>
+      <c r="L161" s="110"/>
+      <c r="M161" s="110"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="110"/>
+      <c r="E162" s="110"/>
+      <c r="F162" s="110"/>
+      <c r="G162" s="110"/>
+      <c r="H162" s="110"/>
+      <c r="I162" s="110"/>
+      <c r="J162" s="110"/>
+      <c r="K162" s="110"/>
+      <c r="L162" s="110"/>
+      <c r="M162" s="110"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="110"/>
+      <c r="E163" s="110"/>
+      <c r="F163" s="110"/>
+      <c r="G163" s="110"/>
+      <c r="H163" s="110"/>
+      <c r="I163" s="110"/>
+      <c r="J163" s="110"/>
+      <c r="K163" s="110"/>
+      <c r="L163" s="110"/>
+      <c r="M163" s="110"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="110"/>
+      <c r="E164" s="110"/>
+      <c r="F164" s="110"/>
+      <c r="G164" s="110"/>
+      <c r="H164" s="110"/>
+      <c r="I164" s="110"/>
+      <c r="J164" s="110"/>
+      <c r="K164" s="110"/>
+      <c r="L164" s="110"/>
+      <c r="M164" s="110"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="110"/>
+      <c r="E165" s="110"/>
+      <c r="F165" s="110"/>
+      <c r="G165" s="110"/>
+      <c r="H165" s="110"/>
+      <c r="I165" s="110"/>
+      <c r="J165" s="110"/>
+      <c r="K165" s="110"/>
+      <c r="L165" s="110"/>
+      <c r="M165" s="110"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="110"/>
+      <c r="E166" s="110"/>
+      <c r="F166" s="110"/>
+      <c r="G166" s="110"/>
+      <c r="H166" s="110"/>
+      <c r="I166" s="110"/>
+      <c r="J166" s="110"/>
+      <c r="K166" s="110"/>
+      <c r="L166" s="110"/>
+      <c r="M166" s="110"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="110"/>
+      <c r="E167" s="110"/>
+      <c r="F167" s="110"/>
+      <c r="G167" s="110"/>
+      <c r="H167" s="110"/>
+      <c r="I167" s="110"/>
+      <c r="J167" s="110"/>
+      <c r="K167" s="110"/>
+      <c r="L167" s="110"/>
+      <c r="M167" s="110"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="110"/>
+      <c r="E168" s="110"/>
+      <c r="F168" s="110"/>
+      <c r="G168" s="110"/>
+      <c r="H168" s="110"/>
+      <c r="I168" s="110"/>
+      <c r="J168" s="110"/>
+      <c r="K168" s="110"/>
+      <c r="L168" s="110"/>
+      <c r="M168" s="110"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="110"/>
+      <c r="E169" s="110"/>
+      <c r="F169" s="110"/>
+      <c r="G169" s="110"/>
+      <c r="H169" s="110"/>
+      <c r="I169" s="110"/>
+      <c r="J169" s="110"/>
+      <c r="K169" s="110"/>
+      <c r="L169" s="110"/>
+      <c r="M169" s="110"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="110"/>
+      <c r="E170" s="110"/>
+      <c r="F170" s="110"/>
+      <c r="G170" s="110"/>
+      <c r="H170" s="110"/>
+      <c r="I170" s="110"/>
+      <c r="J170" s="110"/>
+      <c r="K170" s="110"/>
+      <c r="L170" s="110"/>
+      <c r="M170" s="110"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="110"/>
+      <c r="E171" s="110"/>
+      <c r="F171" s="110"/>
+      <c r="G171" s="110"/>
+      <c r="H171" s="110"/>
+      <c r="I171" s="110"/>
+      <c r="J171" s="110"/>
+      <c r="K171" s="110"/>
+      <c r="L171" s="110"/>
+      <c r="M171" s="110"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="110"/>
+      <c r="E172" s="110"/>
+      <c r="F172" s="110"/>
+      <c r="G172" s="110"/>
+      <c r="H172" s="110"/>
+      <c r="I172" s="110"/>
+      <c r="J172" s="110"/>
+      <c r="K172" s="110"/>
+      <c r="L172" s="110"/>
+      <c r="M172" s="110"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="110"/>
+      <c r="E173" s="110"/>
+      <c r="F173" s="110"/>
+      <c r="G173" s="110"/>
+      <c r="H173" s="110"/>
+      <c r="I173" s="110"/>
+      <c r="J173" s="110"/>
+      <c r="K173" s="110"/>
+      <c r="L173" s="110"/>
+      <c r="M173" s="110"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="110"/>
+      <c r="E174" s="110"/>
+      <c r="F174" s="110"/>
+      <c r="G174" s="110"/>
+      <c r="H174" s="110"/>
+      <c r="I174" s="110"/>
+      <c r="J174" s="110"/>
+      <c r="K174" s="110"/>
+      <c r="L174" s="110"/>
+      <c r="M174" s="110"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="110"/>
+      <c r="E175" s="110"/>
+      <c r="F175" s="110"/>
+      <c r="G175" s="110"/>
+      <c r="H175" s="110"/>
+      <c r="I175" s="110"/>
+      <c r="J175" s="110"/>
+      <c r="K175" s="110"/>
+      <c r="L175" s="110"/>
+      <c r="M175" s="110"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="110"/>
+      <c r="E176" s="110"/>
+      <c r="F176" s="110"/>
+      <c r="G176" s="110"/>
+      <c r="H176" s="110"/>
+      <c r="I176" s="110"/>
+      <c r="J176" s="110"/>
+      <c r="K176" s="110"/>
+      <c r="L176" s="110"/>
+      <c r="M176" s="110"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="110"/>
+      <c r="E177" s="110"/>
+      <c r="F177" s="110"/>
+      <c r="G177" s="110"/>
+      <c r="H177" s="110"/>
+      <c r="I177" s="110"/>
+      <c r="J177" s="110"/>
+      <c r="K177" s="110"/>
+      <c r="L177" s="110"/>
+      <c r="M177" s="110"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="110"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="110"/>
+      <c r="I178" s="110"/>
+      <c r="J178" s="110"/>
+      <c r="K178" s="110"/>
+      <c r="L178" s="110"/>
+      <c r="M178" s="110"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="110"/>
+      <c r="E179" s="110"/>
+      <c r="F179" s="110"/>
+      <c r="G179" s="110"/>
+      <c r="H179" s="110"/>
+      <c r="I179" s="110"/>
+      <c r="J179" s="110"/>
+      <c r="K179" s="110"/>
+      <c r="L179" s="110"/>
+      <c r="M179" s="110"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="110"/>
+      <c r="E180" s="110"/>
+      <c r="F180" s="110"/>
+      <c r="G180" s="110"/>
+      <c r="H180" s="110"/>
+      <c r="I180" s="110"/>
+      <c r="J180" s="110"/>
+      <c r="K180" s="110"/>
+      <c r="L180" s="110"/>
+      <c r="M180" s="110"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="110"/>
+      <c r="E181" s="110"/>
+      <c r="F181" s="110"/>
+      <c r="G181" s="110"/>
+      <c r="H181" s="110"/>
+      <c r="I181" s="110"/>
+      <c r="J181" s="110"/>
+      <c r="K181" s="110"/>
+      <c r="L181" s="110"/>
+      <c r="M181" s="110"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="110"/>
+      <c r="E182" s="110"/>
+      <c r="F182" s="110"/>
+      <c r="G182" s="110"/>
+      <c r="H182" s="110"/>
+      <c r="I182" s="110"/>
+      <c r="J182" s="110"/>
+      <c r="K182" s="110"/>
+      <c r="L182" s="110"/>
+      <c r="M182" s="110"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="110"/>
+      <c r="E183" s="110"/>
+      <c r="F183" s="110"/>
+      <c r="G183" s="110"/>
+      <c r="H183" s="110"/>
+      <c r="I183" s="110"/>
+      <c r="J183" s="110"/>
+      <c r="K183" s="110"/>
+      <c r="L183" s="110"/>
+      <c r="M183" s="110"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="110"/>
+      <c r="E184" s="110"/>
+      <c r="F184" s="110"/>
+      <c r="G184" s="110"/>
+      <c r="H184" s="110"/>
+      <c r="I184" s="110"/>
+      <c r="J184" s="110"/>
+      <c r="K184" s="110"/>
+      <c r="L184" s="110"/>
+      <c r="M184" s="110"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="110"/>
+      <c r="E185" s="110"/>
+      <c r="F185" s="110"/>
+      <c r="G185" s="110"/>
+      <c r="H185" s="110"/>
+      <c r="I185" s="110"/>
+      <c r="J185" s="110"/>
+      <c r="K185" s="110"/>
+      <c r="L185" s="110"/>
+      <c r="M185" s="110"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="110"/>
+      <c r="E186" s="110"/>
+      <c r="F186" s="110"/>
+      <c r="G186" s="110"/>
+      <c r="H186" s="110"/>
+      <c r="I186" s="110"/>
+      <c r="J186" s="110"/>
+      <c r="K186" s="110"/>
+      <c r="L186" s="110"/>
+      <c r="M186" s="110"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="110"/>
+      <c r="E187" s="110"/>
+      <c r="F187" s="110"/>
+      <c r="G187" s="110"/>
+      <c r="H187" s="110"/>
+      <c r="I187" s="110"/>
+      <c r="J187" s="110"/>
+      <c r="K187" s="110"/>
+      <c r="L187" s="110"/>
+      <c r="M187" s="110"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="110"/>
+      <c r="E188" s="110"/>
+      <c r="F188" s="110"/>
+      <c r="G188" s="110"/>
+      <c r="H188" s="110"/>
+      <c r="I188" s="110"/>
+      <c r="J188" s="110"/>
+      <c r="K188" s="110"/>
+      <c r="L188" s="110"/>
+      <c r="M188" s="110"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="110"/>
+      <c r="E189" s="110"/>
+      <c r="F189" s="110"/>
+      <c r="G189" s="110"/>
+      <c r="H189" s="110"/>
+      <c r="I189" s="110"/>
+      <c r="J189" s="110"/>
+      <c r="K189" s="110"/>
+      <c r="L189" s="110"/>
+      <c r="M189" s="110"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="110"/>
+      <c r="E190" s="110"/>
+      <c r="F190" s="110"/>
+      <c r="G190" s="110"/>
+      <c r="H190" s="110"/>
+      <c r="I190" s="110"/>
+      <c r="J190" s="110"/>
+      <c r="K190" s="110"/>
+      <c r="L190" s="110"/>
+      <c r="M190" s="110"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="110"/>
+      <c r="E191" s="110"/>
+      <c r="F191" s="110"/>
+      <c r="G191" s="110"/>
+      <c r="H191" s="110"/>
+      <c r="I191" s="110"/>
+      <c r="J191" s="110"/>
+      <c r="K191" s="110"/>
+      <c r="L191" s="110"/>
+      <c r="M191" s="110"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="110"/>
+      <c r="E192" s="110"/>
+      <c r="F192" s="110"/>
+      <c r="G192" s="110"/>
+      <c r="H192" s="110"/>
+      <c r="I192" s="110"/>
+      <c r="J192" s="110"/>
+      <c r="K192" s="110"/>
+      <c r="L192" s="110"/>
+      <c r="M192" s="110"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="110"/>
+      <c r="E193" s="110"/>
+      <c r="F193" s="110"/>
+      <c r="G193" s="110"/>
+      <c r="H193" s="110"/>
+      <c r="I193" s="110"/>
+      <c r="J193" s="110"/>
+      <c r="K193" s="110"/>
+      <c r="L193" s="110"/>
+      <c r="M193" s="110"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="110"/>
+      <c r="E194" s="110"/>
+      <c r="F194" s="110"/>
+      <c r="G194" s="110"/>
+      <c r="H194" s="110"/>
+      <c r="I194" s="110"/>
+      <c r="J194" s="110"/>
+      <c r="K194" s="110"/>
+      <c r="L194" s="110"/>
+      <c r="M194" s="110"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="110"/>
+      <c r="E195" s="110"/>
+      <c r="F195" s="110"/>
+      <c r="G195" s="110"/>
+      <c r="H195" s="110"/>
+      <c r="I195" s="110"/>
+      <c r="J195" s="110"/>
+      <c r="K195" s="110"/>
+      <c r="L195" s="110"/>
+      <c r="M195" s="110"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="110"/>
+      <c r="E196" s="110"/>
+      <c r="F196" s="110"/>
+      <c r="G196" s="110"/>
+      <c r="H196" s="110"/>
+      <c r="I196" s="110"/>
+      <c r="J196" s="110"/>
+      <c r="K196" s="110"/>
+      <c r="L196" s="110"/>
+      <c r="M196" s="110"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="110"/>
+      <c r="E197" s="110"/>
+      <c r="F197" s="110"/>
+      <c r="G197" s="110"/>
+      <c r="H197" s="110"/>
+      <c r="I197" s="110"/>
+      <c r="J197" s="110"/>
+      <c r="K197" s="110"/>
+      <c r="L197" s="110"/>
+      <c r="M197" s="110"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="110"/>
+      <c r="E198" s="110"/>
+      <c r="F198" s="110"/>
+      <c r="G198" s="110"/>
+      <c r="H198" s="110"/>
+      <c r="I198" s="110"/>
+      <c r="J198" s="110"/>
+      <c r="K198" s="110"/>
+      <c r="L198" s="110"/>
+      <c r="M198" s="110"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="110"/>
+      <c r="E199" s="110"/>
+      <c r="F199" s="110"/>
+      <c r="G199" s="110"/>
+      <c r="H199" s="110"/>
+      <c r="I199" s="110"/>
+      <c r="J199" s="110"/>
+      <c r="K199" s="110"/>
+      <c r="L199" s="110"/>
+      <c r="M199" s="110"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="110"/>
+      <c r="E200" s="110"/>
+      <c r="F200" s="110"/>
+      <c r="G200" s="110"/>
+      <c r="H200" s="110"/>
+      <c r="I200" s="110"/>
+      <c r="J200" s="110"/>
+      <c r="K200" s="110"/>
+      <c r="L200" s="110"/>
+      <c r="M200" s="110"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="110"/>
+      <c r="E201" s="110"/>
+      <c r="F201" s="110"/>
+      <c r="G201" s="110"/>
+      <c r="H201" s="110"/>
+      <c r="I201" s="110"/>
+      <c r="J201" s="110"/>
+      <c r="K201" s="110"/>
+      <c r="L201" s="110"/>
+      <c r="M201" s="110"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="110"/>
+      <c r="E202" s="110"/>
+      <c r="F202" s="110"/>
+      <c r="G202" s="110"/>
+      <c r="H202" s="110"/>
+      <c r="I202" s="110"/>
+      <c r="J202" s="110"/>
+      <c r="K202" s="110"/>
+      <c r="L202" s="110"/>
+      <c r="M202" s="110"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="110"/>
+      <c r="E203" s="110"/>
+      <c r="F203" s="110"/>
+      <c r="G203" s="110"/>
+      <c r="H203" s="110"/>
+      <c r="I203" s="110"/>
+      <c r="J203" s="110"/>
+      <c r="K203" s="110"/>
+      <c r="L203" s="110"/>
+      <c r="M203" s="110"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="110"/>
+      <c r="E204" s="110"/>
+      <c r="F204" s="110"/>
+      <c r="G204" s="110"/>
+      <c r="H204" s="110"/>
+      <c r="I204" s="110"/>
+      <c r="J204" s="110"/>
+      <c r="K204" s="110"/>
+      <c r="L204" s="110"/>
+      <c r="M204" s="110"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="110"/>
+      <c r="E205" s="110"/>
+      <c r="F205" s="110"/>
+      <c r="G205" s="110"/>
+      <c r="H205" s="110"/>
+      <c r="I205" s="110"/>
+      <c r="J205" s="110"/>
+      <c r="K205" s="110"/>
+      <c r="L205" s="110"/>
+      <c r="M205" s="110"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="110"/>
+      <c r="E206" s="110"/>
+      <c r="F206" s="110"/>
+      <c r="G206" s="110"/>
+      <c r="H206" s="110"/>
+      <c r="I206" s="110"/>
+      <c r="J206" s="110"/>
+      <c r="K206" s="110"/>
+      <c r="L206" s="110"/>
+      <c r="M206" s="110"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="110"/>
+      <c r="E207" s="110"/>
+      <c r="F207" s="110"/>
+      <c r="G207" s="110"/>
+      <c r="H207" s="110"/>
+      <c r="I207" s="110"/>
+      <c r="J207" s="110"/>
+      <c r="K207" s="110"/>
+      <c r="L207" s="110"/>
+      <c r="M207" s="110"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="110"/>
+      <c r="E208" s="110"/>
+      <c r="F208" s="110"/>
+      <c r="G208" s="110"/>
+      <c r="H208" s="110"/>
+      <c r="I208" s="110"/>
+      <c r="J208" s="110"/>
+      <c r="K208" s="110"/>
+      <c r="L208" s="110"/>
+      <c r="M208" s="110"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="110"/>
+      <c r="E209" s="110"/>
+      <c r="F209" s="110"/>
+      <c r="G209" s="110"/>
+      <c r="H209" s="110"/>
+      <c r="I209" s="110"/>
+      <c r="J209" s="110"/>
+      <c r="K209" s="110"/>
+      <c r="L209" s="110"/>
+      <c r="M209" s="110"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="110"/>
+      <c r="E210" s="110"/>
+      <c r="F210" s="110"/>
+      <c r="G210" s="110"/>
+      <c r="H210" s="110"/>
+      <c r="I210" s="110"/>
+      <c r="J210" s="110"/>
+      <c r="K210" s="110"/>
+      <c r="L210" s="110"/>
+      <c r="M210" s="110"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="110"/>
+      <c r="E211" s="110"/>
+      <c r="F211" s="110"/>
+      <c r="G211" s="110"/>
+      <c r="H211" s="110"/>
+      <c r="I211" s="110"/>
+      <c r="J211" s="110"/>
+      <c r="K211" s="110"/>
+      <c r="L211" s="110"/>
+      <c r="M211" s="110"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="110"/>
+      <c r="E212" s="110"/>
+      <c r="F212" s="110"/>
+      <c r="G212" s="110"/>
+      <c r="H212" s="110"/>
+      <c r="I212" s="110"/>
+      <c r="J212" s="110"/>
+      <c r="K212" s="110"/>
+      <c r="L212" s="110"/>
+      <c r="M212" s="110"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="110"/>
+      <c r="E213" s="110"/>
+      <c r="F213" s="110"/>
+      <c r="G213" s="110"/>
+      <c r="H213" s="110"/>
+      <c r="I213" s="110"/>
+      <c r="J213" s="110"/>
+      <c r="K213" s="110"/>
+      <c r="L213" s="110"/>
+      <c r="M213" s="110"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="110"/>
+      <c r="E214" s="110"/>
+      <c r="F214" s="110"/>
+      <c r="G214" s="110"/>
+      <c r="H214" s="110"/>
+      <c r="I214" s="110"/>
+      <c r="J214" s="110"/>
+      <c r="K214" s="110"/>
+      <c r="L214" s="110"/>
+      <c r="M214" s="110"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="110"/>
+      <c r="E215" s="110"/>
+      <c r="F215" s="110"/>
+      <c r="G215" s="110"/>
+      <c r="H215" s="110"/>
+      <c r="I215" s="110"/>
+      <c r="J215" s="110"/>
+      <c r="K215" s="110"/>
+      <c r="L215" s="110"/>
+      <c r="M215" s="110"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="110"/>
+      <c r="E216" s="110"/>
+      <c r="F216" s="110"/>
+      <c r="G216" s="110"/>
+      <c r="H216" s="110"/>
+      <c r="I216" s="110"/>
+      <c r="J216" s="110"/>
+      <c r="K216" s="110"/>
+      <c r="L216" s="110"/>
+      <c r="M216" s="110"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="110"/>
+      <c r="E217" s="110"/>
+      <c r="F217" s="110"/>
+      <c r="G217" s="110"/>
+      <c r="H217" s="110"/>
+      <c r="I217" s="110"/>
+      <c r="J217" s="110"/>
+      <c r="K217" s="110"/>
+      <c r="L217" s="110"/>
+      <c r="M217" s="110"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="110"/>
+      <c r="E218" s="110"/>
+      <c r="F218" s="110"/>
+      <c r="G218" s="110"/>
+      <c r="H218" s="110"/>
+      <c r="I218" s="110"/>
+      <c r="J218" s="110"/>
+      <c r="K218" s="110"/>
+      <c r="L218" s="110"/>
+      <c r="M218" s="110"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="110"/>
+      <c r="E219" s="110"/>
+      <c r="F219" s="110"/>
+      <c r="G219" s="110"/>
+      <c r="H219" s="110"/>
+      <c r="I219" s="110"/>
+      <c r="J219" s="110"/>
+      <c r="K219" s="110"/>
+      <c r="L219" s="110"/>
+      <c r="M219" s="110"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="110"/>
+      <c r="E220" s="110"/>
+      <c r="F220" s="110"/>
+      <c r="G220" s="110"/>
+      <c r="H220" s="110"/>
+      <c r="I220" s="110"/>
+      <c r="J220" s="110"/>
+      <c r="K220" s="110"/>
+      <c r="L220" s="110"/>
+      <c r="M220" s="110"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="110"/>
+      <c r="E221" s="110"/>
+      <c r="F221" s="110"/>
+      <c r="G221" s="110"/>
+      <c r="H221" s="110"/>
+      <c r="I221" s="110"/>
+      <c r="J221" s="110"/>
+      <c r="K221" s="110"/>
+      <c r="L221" s="110"/>
+      <c r="M221" s="110"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="110"/>
+      <c r="E222" s="110"/>
+      <c r="F222" s="110"/>
+      <c r="G222" s="110"/>
+      <c r="H222" s="110"/>
+      <c r="I222" s="110"/>
+      <c r="J222" s="110"/>
+      <c r="K222" s="110"/>
+      <c r="L222" s="110"/>
+      <c r="M222" s="110"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="110"/>
+      <c r="E223" s="110"/>
+      <c r="F223" s="110"/>
+      <c r="G223" s="110"/>
+      <c r="H223" s="110"/>
+      <c r="I223" s="110"/>
+      <c r="J223" s="110"/>
+      <c r="K223" s="110"/>
+      <c r="L223" s="110"/>
+      <c r="M223" s="110"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="110"/>
+      <c r="E224" s="110"/>
+      <c r="F224" s="110"/>
+      <c r="G224" s="110"/>
+      <c r="H224" s="110"/>
+      <c r="I224" s="110"/>
+      <c r="J224" s="110"/>
+      <c r="K224" s="110"/>
+      <c r="L224" s="110"/>
+      <c r="M224" s="110"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="110"/>
+      <c r="E225" s="110"/>
+      <c r="F225" s="110"/>
+      <c r="G225" s="110"/>
+      <c r="H225" s="110"/>
+      <c r="I225" s="110"/>
+      <c r="J225" s="110"/>
+      <c r="K225" s="110"/>
+      <c r="L225" s="110"/>
+      <c r="M225" s="110"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="110"/>
+      <c r="E226" s="110"/>
+      <c r="F226" s="110"/>
+      <c r="G226" s="110"/>
+      <c r="H226" s="110"/>
+      <c r="I226" s="110"/>
+      <c r="J226" s="110"/>
+      <c r="K226" s="110"/>
+      <c r="L226" s="110"/>
+      <c r="M226" s="110"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="110"/>
+      <c r="E227" s="110"/>
+      <c r="F227" s="110"/>
+      <c r="G227" s="110"/>
+      <c r="H227" s="110"/>
+      <c r="I227" s="110"/>
+      <c r="J227" s="110"/>
+      <c r="K227" s="110"/>
+      <c r="L227" s="110"/>
+      <c r="M227" s="110"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="110"/>
+      <c r="E228" s="110"/>
+      <c r="F228" s="110"/>
+      <c r="G228" s="110"/>
+      <c r="H228" s="110"/>
+      <c r="I228" s="110"/>
+      <c r="J228" s="110"/>
+      <c r="K228" s="110"/>
+      <c r="L228" s="110"/>
+      <c r="M228" s="110"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="110"/>
+      <c r="E229" s="110"/>
+      <c r="F229" s="110"/>
+      <c r="G229" s="110"/>
+      <c r="H229" s="110"/>
+      <c r="I229" s="110"/>
+      <c r="J229" s="110"/>
+      <c r="K229" s="110"/>
+      <c r="L229" s="110"/>
+      <c r="M229" s="110"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="110"/>
+      <c r="E230" s="110"/>
+      <c r="F230" s="110"/>
+      <c r="G230" s="110"/>
+      <c r="H230" s="110"/>
+      <c r="I230" s="110"/>
+      <c r="J230" s="110"/>
+      <c r="K230" s="110"/>
+      <c r="L230" s="110"/>
+      <c r="M230" s="110"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="110"/>
+      <c r="E231" s="110"/>
+      <c r="F231" s="110"/>
+      <c r="G231" s="110"/>
+      <c r="H231" s="110"/>
+      <c r="I231" s="110"/>
+      <c r="J231" s="110"/>
+      <c r="K231" s="110"/>
+      <c r="L231" s="110"/>
+      <c r="M231" s="110"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="110"/>
+      <c r="E232" s="110"/>
+      <c r="F232" s="110"/>
+      <c r="G232" s="110"/>
+      <c r="H232" s="110"/>
+      <c r="I232" s="110"/>
+      <c r="J232" s="110"/>
+      <c r="K232" s="110"/>
+      <c r="L232" s="110"/>
+      <c r="M232" s="110"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="110"/>
+      <c r="E233" s="110"/>
+      <c r="F233" s="110"/>
+      <c r="G233" s="110"/>
+      <c r="H233" s="110"/>
+      <c r="I233" s="110"/>
+      <c r="J233" s="110"/>
+      <c r="K233" s="110"/>
+      <c r="L233" s="110"/>
+      <c r="M233" s="110"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="110"/>
+      <c r="E234" s="110"/>
+      <c r="F234" s="110"/>
+      <c r="G234" s="110"/>
+      <c r="H234" s="110"/>
+      <c r="I234" s="110"/>
+      <c r="J234" s="110"/>
+      <c r="K234" s="110"/>
+      <c r="L234" s="110"/>
+      <c r="M234" s="110"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="110"/>
+      <c r="E235" s="110"/>
+      <c r="F235" s="110"/>
+      <c r="G235" s="110"/>
+      <c r="H235" s="110"/>
+      <c r="I235" s="110"/>
+      <c r="J235" s="110"/>
+      <c r="K235" s="110"/>
+      <c r="L235" s="110"/>
+      <c r="M235" s="110"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="110"/>
+      <c r="E236" s="110"/>
+      <c r="F236" s="110"/>
+      <c r="G236" s="110"/>
+      <c r="H236" s="110"/>
+      <c r="I236" s="110"/>
+      <c r="J236" s="110"/>
+      <c r="K236" s="110"/>
+      <c r="L236" s="110"/>
+      <c r="M236" s="110"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="110"/>
+      <c r="E237" s="110"/>
+      <c r="F237" s="110"/>
+      <c r="G237" s="110"/>
+      <c r="H237" s="110"/>
+      <c r="I237" s="110"/>
+      <c r="J237" s="110"/>
+      <c r="K237" s="110"/>
+      <c r="L237" s="110"/>
+      <c r="M237" s="110"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="110"/>
+      <c r="E238" s="110"/>
+      <c r="F238" s="110"/>
+      <c r="G238" s="110"/>
+      <c r="H238" s="110"/>
+      <c r="I238" s="110"/>
+      <c r="J238" s="110"/>
+      <c r="K238" s="110"/>
+      <c r="L238" s="110"/>
+      <c r="M238" s="110"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="110"/>
+      <c r="E239" s="110"/>
+      <c r="F239" s="110"/>
+      <c r="G239" s="110"/>
+      <c r="H239" s="110"/>
+      <c r="I239" s="110"/>
+      <c r="J239" s="110"/>
+      <c r="K239" s="110"/>
+      <c r="L239" s="110"/>
+      <c r="M239" s="110"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="110"/>
+      <c r="E240" s="110"/>
+      <c r="F240" s="110"/>
+      <c r="G240" s="110"/>
+      <c r="H240" s="110"/>
+      <c r="I240" s="110"/>
+      <c r="J240" s="110"/>
+      <c r="K240" s="110"/>
+      <c r="L240" s="110"/>
+      <c r="M240" s="110"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="110"/>
+      <c r="E241" s="110"/>
+      <c r="F241" s="110"/>
+      <c r="G241" s="110"/>
+      <c r="H241" s="110"/>
+      <c r="I241" s="110"/>
+      <c r="J241" s="110"/>
+      <c r="K241" s="110"/>
+      <c r="L241" s="110"/>
+      <c r="M241" s="110"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="110"/>
+      <c r="E242" s="110"/>
+      <c r="F242" s="110"/>
+      <c r="G242" s="110"/>
+      <c r="H242" s="110"/>
+      <c r="I242" s="110"/>
+      <c r="J242" s="110"/>
+      <c r="K242" s="110"/>
+      <c r="L242" s="110"/>
+      <c r="M242" s="110"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="110"/>
+      <c r="E243" s="110"/>
+      <c r="F243" s="110"/>
+      <c r="G243" s="110"/>
+      <c r="H243" s="110"/>
+      <c r="I243" s="110"/>
+      <c r="J243" s="110"/>
+      <c r="K243" s="110"/>
+      <c r="L243" s="110"/>
+      <c r="M243" s="110"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="110"/>
+      <c r="E244" s="110"/>
+      <c r="F244" s="110"/>
+      <c r="G244" s="110"/>
+      <c r="H244" s="110"/>
+      <c r="I244" s="110"/>
+      <c r="J244" s="110"/>
+      <c r="K244" s="110"/>
+      <c r="L244" s="110"/>
+      <c r="M244" s="110"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="110"/>
+      <c r="E245" s="110"/>
+      <c r="F245" s="110"/>
+      <c r="G245" s="110"/>
+      <c r="H245" s="110"/>
+      <c r="I245" s="110"/>
+      <c r="J245" s="110"/>
+      <c r="K245" s="110"/>
+      <c r="L245" s="110"/>
+      <c r="M245" s="110"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="110"/>
+      <c r="E246" s="110"/>
+      <c r="F246" s="110"/>
+      <c r="G246" s="110"/>
+      <c r="H246" s="110"/>
+      <c r="I246" s="110"/>
+      <c r="J246" s="110"/>
+      <c r="K246" s="110"/>
+      <c r="L246" s="110"/>
+      <c r="M246" s="110"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="110"/>
+      <c r="E247" s="110"/>
+      <c r="F247" s="110"/>
+      <c r="G247" s="110"/>
+      <c r="H247" s="110"/>
+      <c r="I247" s="110"/>
+      <c r="J247" s="110"/>
+      <c r="K247" s="110"/>
+      <c r="L247" s="110"/>
+      <c r="M247" s="110"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="110"/>
+      <c r="E248" s="110"/>
+      <c r="F248" s="110"/>
+      <c r="G248" s="110"/>
+      <c r="H248" s="110"/>
+      <c r="I248" s="110"/>
+      <c r="J248" s="110"/>
+      <c r="K248" s="110"/>
+      <c r="L248" s="110"/>
+      <c r="M248" s="110"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="110"/>
+      <c r="E249" s="110"/>
+      <c r="F249" s="110"/>
+      <c r="G249" s="110"/>
+      <c r="H249" s="110"/>
+      <c r="I249" s="110"/>
+      <c r="J249" s="110"/>
+      <c r="K249" s="110"/>
+      <c r="L249" s="110"/>
+      <c r="M249" s="110"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="110"/>
+      <c r="E250" s="110"/>
+      <c r="F250" s="110"/>
+      <c r="G250" s="110"/>
+      <c r="H250" s="110"/>
+      <c r="I250" s="110"/>
+      <c r="J250" s="110"/>
+      <c r="K250" s="110"/>
+      <c r="L250" s="110"/>
+      <c r="M250" s="110"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="110"/>
+      <c r="E251" s="110"/>
+      <c r="F251" s="110"/>
+      <c r="G251" s="110"/>
+      <c r="H251" s="110"/>
+      <c r="I251" s="110"/>
+      <c r="J251" s="110"/>
+      <c r="K251" s="110"/>
+      <c r="L251" s="110"/>
+      <c r="M251" s="110"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="110"/>
+      <c r="E252" s="110"/>
+      <c r="F252" s="110"/>
+      <c r="G252" s="110"/>
+      <c r="H252" s="110"/>
+      <c r="I252" s="110"/>
+      <c r="J252" s="110"/>
+      <c r="K252" s="110"/>
+      <c r="L252" s="110"/>
+      <c r="M252" s="110"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="110"/>
+      <c r="E253" s="110"/>
+      <c r="F253" s="110"/>
+      <c r="G253" s="110"/>
+      <c r="H253" s="110"/>
+      <c r="I253" s="110"/>
+      <c r="J253" s="110"/>
+      <c r="K253" s="110"/>
+      <c r="L253" s="110"/>
+      <c r="M253" s="110"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="110"/>
+      <c r="E254" s="110"/>
+      <c r="F254" s="110"/>
+      <c r="G254" s="110"/>
+      <c r="H254" s="110"/>
+      <c r="I254" s="110"/>
+      <c r="J254" s="110"/>
+      <c r="K254" s="110"/>
+      <c r="L254" s="110"/>
+      <c r="M254" s="110"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="110"/>
+      <c r="E255" s="110"/>
+      <c r="F255" s="110"/>
+      <c r="G255" s="110"/>
+      <c r="H255" s="110"/>
+      <c r="I255" s="110"/>
+      <c r="J255" s="110"/>
+      <c r="K255" s="110"/>
+      <c r="L255" s="110"/>
+      <c r="M255" s="110"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="110"/>
+      <c r="E256" s="110"/>
+      <c r="F256" s="110"/>
+      <c r="G256" s="110"/>
+      <c r="H256" s="110"/>
+      <c r="I256" s="110"/>
+      <c r="J256" s="110"/>
+      <c r="K256" s="110"/>
+      <c r="L256" s="110"/>
+      <c r="M256" s="110"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="110"/>
+      <c r="E257" s="110"/>
+      <c r="F257" s="110"/>
+      <c r="G257" s="110"/>
+      <c r="H257" s="110"/>
+      <c r="I257" s="110"/>
+      <c r="J257" s="110"/>
+      <c r="K257" s="110"/>
+      <c r="L257" s="110"/>
+      <c r="M257" s="110"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="110"/>
+      <c r="E258" s="110"/>
+      <c r="F258" s="110"/>
+      <c r="G258" s="110"/>
+      <c r="H258" s="110"/>
+      <c r="I258" s="110"/>
+      <c r="J258" s="110"/>
+      <c r="K258" s="110"/>
+      <c r="L258" s="110"/>
+      <c r="M258" s="110"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="110"/>
+      <c r="E259" s="110"/>
+      <c r="F259" s="110"/>
+      <c r="G259" s="110"/>
+      <c r="H259" s="110"/>
+      <c r="I259" s="110"/>
+      <c r="J259" s="110"/>
+      <c r="K259" s="110"/>
+      <c r="L259" s="110"/>
+      <c r="M259" s="110"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="110"/>
+      <c r="E260" s="110"/>
+      <c r="F260" s="110"/>
+      <c r="G260" s="110"/>
+      <c r="H260" s="110"/>
+      <c r="I260" s="110"/>
+      <c r="J260" s="110"/>
+      <c r="K260" s="110"/>
+      <c r="L260" s="110"/>
+      <c r="M260" s="110"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="110"/>
+      <c r="E261" s="110"/>
+      <c r="F261" s="110"/>
+      <c r="G261" s="110"/>
+      <c r="H261" s="110"/>
+      <c r="I261" s="110"/>
+      <c r="J261" s="110"/>
+      <c r="K261" s="110"/>
+      <c r="L261" s="110"/>
+      <c r="M261" s="110"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="110"/>
+      <c r="E262" s="110"/>
+      <c r="F262" s="110"/>
+      <c r="G262" s="110"/>
+      <c r="H262" s="110"/>
+      <c r="I262" s="110"/>
+      <c r="J262" s="110"/>
+      <c r="K262" s="110"/>
+      <c r="L262" s="110"/>
+      <c r="M262" s="110"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="110"/>
+      <c r="E263" s="110"/>
+      <c r="F263" s="110"/>
+      <c r="G263" s="110"/>
+      <c r="H263" s="110"/>
+      <c r="I263" s="110"/>
+      <c r="J263" s="110"/>
+      <c r="K263" s="110"/>
+      <c r="L263" s="110"/>
+      <c r="M263" s="110"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="110"/>
+      <c r="E264" s="110"/>
+      <c r="F264" s="110"/>
+      <c r="G264" s="110"/>
+      <c r="H264" s="110"/>
+      <c r="I264" s="110"/>
+      <c r="J264" s="110"/>
+      <c r="K264" s="110"/>
+      <c r="L264" s="110"/>
+      <c r="M264" s="110"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="110"/>
+      <c r="E265" s="110"/>
+      <c r="F265" s="110"/>
+      <c r="G265" s="110"/>
+      <c r="H265" s="110"/>
+      <c r="I265" s="110"/>
+      <c r="J265" s="110"/>
+      <c r="K265" s="110"/>
+      <c r="L265" s="110"/>
+      <c r="M265" s="110"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="110"/>
+      <c r="E266" s="110"/>
+      <c r="F266" s="110"/>
+      <c r="G266" s="110"/>
+      <c r="H266" s="110"/>
+      <c r="I266" s="110"/>
+      <c r="J266" s="110"/>
+      <c r="K266" s="110"/>
+      <c r="L266" s="110"/>
+      <c r="M266" s="110"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="110"/>
+      <c r="E267" s="110"/>
+      <c r="F267" s="110"/>
+      <c r="G267" s="110"/>
+      <c r="H267" s="110"/>
+      <c r="I267" s="110"/>
+      <c r="J267" s="110"/>
+      <c r="K267" s="110"/>
+      <c r="L267" s="110"/>
+      <c r="M267" s="110"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="110"/>
+      <c r="E268" s="110"/>
+      <c r="F268" s="110"/>
+      <c r="G268" s="110"/>
+      <c r="H268" s="110"/>
+      <c r="I268" s="110"/>
+      <c r="J268" s="110"/>
+      <c r="K268" s="110"/>
+      <c r="L268" s="110"/>
+      <c r="M268" s="110"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="110"/>
+      <c r="E269" s="110"/>
+      <c r="F269" s="110"/>
+      <c r="G269" s="110"/>
+      <c r="H269" s="110"/>
+      <c r="I269" s="110"/>
+      <c r="J269" s="110"/>
+      <c r="K269" s="110"/>
+      <c r="L269" s="110"/>
+      <c r="M269" s="110"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="110"/>
+      <c r="E270" s="110"/>
+      <c r="F270" s="110"/>
+      <c r="G270" s="110"/>
+      <c r="H270" s="110"/>
+      <c r="I270" s="110"/>
+      <c r="J270" s="110"/>
+      <c r="K270" s="110"/>
+      <c r="L270" s="110"/>
+      <c r="M270" s="110"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="110"/>
+      <c r="E271" s="110"/>
+      <c r="F271" s="110"/>
+      <c r="G271" s="110"/>
+      <c r="H271" s="110"/>
+      <c r="I271" s="110"/>
+      <c r="J271" s="110"/>
+      <c r="K271" s="110"/>
+      <c r="L271" s="110"/>
+      <c r="M271" s="110"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="110"/>
+      <c r="E272" s="110"/>
+      <c r="F272" s="110"/>
+      <c r="G272" s="110"/>
+      <c r="H272" s="110"/>
+      <c r="I272" s="110"/>
+      <c r="J272" s="110"/>
+      <c r="K272" s="110"/>
+      <c r="L272" s="110"/>
+      <c r="M272" s="110"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="110"/>
+      <c r="E273" s="110"/>
+      <c r="F273" s="110"/>
+      <c r="G273" s="110"/>
+      <c r="H273" s="110"/>
+      <c r="I273" s="110"/>
+      <c r="J273" s="110"/>
+      <c r="K273" s="110"/>
+      <c r="L273" s="110"/>
+      <c r="M273" s="110"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="110"/>
+      <c r="E274" s="110"/>
+      <c r="F274" s="110"/>
+      <c r="G274" s="110"/>
+      <c r="H274" s="110"/>
+      <c r="I274" s="110"/>
+      <c r="J274" s="110"/>
+      <c r="K274" s="110"/>
+      <c r="L274" s="110"/>
+      <c r="M274" s="110"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="110"/>
+      <c r="E275" s="110"/>
+      <c r="F275" s="110"/>
+      <c r="G275" s="110"/>
+      <c r="H275" s="110"/>
+      <c r="I275" s="110"/>
+      <c r="J275" s="110"/>
+      <c r="K275" s="110"/>
+      <c r="L275" s="110"/>
+      <c r="M275" s="110"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="110"/>
+      <c r="E276" s="110"/>
+      <c r="F276" s="110"/>
+      <c r="G276" s="110"/>
+      <c r="H276" s="110"/>
+      <c r="I276" s="110"/>
+      <c r="J276" s="110"/>
+      <c r="K276" s="110"/>
+      <c r="L276" s="110"/>
+      <c r="M276" s="110"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="110"/>
+      <c r="E277" s="110"/>
+      <c r="F277" s="110"/>
+      <c r="G277" s="110"/>
+      <c r="H277" s="110"/>
+      <c r="I277" s="110"/>
+      <c r="J277" s="110"/>
+      <c r="K277" s="110"/>
+      <c r="L277" s="110"/>
+      <c r="M277" s="110"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="110"/>
+      <c r="E278" s="110"/>
+      <c r="F278" s="110"/>
+      <c r="G278" s="110"/>
+      <c r="H278" s="110"/>
+      <c r="I278" s="110"/>
+      <c r="J278" s="110"/>
+      <c r="K278" s="110"/>
+      <c r="L278" s="110"/>
+      <c r="M278" s="110"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="110"/>
+      <c r="E279" s="110"/>
+      <c r="F279" s="110"/>
+      <c r="G279" s="110"/>
+      <c r="H279" s="110"/>
+      <c r="I279" s="110"/>
+      <c r="J279" s="110"/>
+      <c r="K279" s="110"/>
+      <c r="L279" s="110"/>
+      <c r="M279" s="110"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="110"/>
+      <c r="E280" s="110"/>
+      <c r="F280" s="110"/>
+      <c r="G280" s="110"/>
+      <c r="H280" s="110"/>
+      <c r="I280" s="110"/>
+      <c r="J280" s="110"/>
+      <c r="K280" s="110"/>
+      <c r="L280" s="110"/>
+      <c r="M280" s="110"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="110"/>
+      <c r="E281" s="110"/>
+      <c r="F281" s="110"/>
+      <c r="G281" s="110"/>
+      <c r="H281" s="110"/>
+      <c r="I281" s="110"/>
+      <c r="J281" s="110"/>
+      <c r="K281" s="110"/>
+      <c r="L281" s="110"/>
+      <c r="M281" s="110"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="110"/>
+      <c r="E282" s="110"/>
+      <c r="F282" s="110"/>
+      <c r="G282" s="110"/>
+      <c r="H282" s="110"/>
+      <c r="I282" s="110"/>
+      <c r="J282" s="110"/>
+      <c r="K282" s="110"/>
+      <c r="L282" s="110"/>
+      <c r="M282" s="110"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="110"/>
+      <c r="E283" s="110"/>
+      <c r="F283" s="110"/>
+      <c r="G283" s="110"/>
+      <c r="H283" s="110"/>
+      <c r="I283" s="110"/>
+      <c r="J283" s="110"/>
+      <c r="K283" s="110"/>
+      <c r="L283" s="110"/>
+      <c r="M283" s="110"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="110"/>
+      <c r="E284" s="110"/>
+      <c r="F284" s="110"/>
+      <c r="G284" s="110"/>
+      <c r="H284" s="110"/>
+      <c r="I284" s="110"/>
+      <c r="J284" s="110"/>
+      <c r="K284" s="110"/>
+      <c r="L284" s="110"/>
+      <c r="M284" s="110"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="110"/>
+      <c r="E285" s="110"/>
+      <c r="F285" s="110"/>
+      <c r="G285" s="110"/>
+      <c r="H285" s="110"/>
+      <c r="I285" s="110"/>
+      <c r="J285" s="110"/>
+      <c r="K285" s="110"/>
+      <c r="L285" s="110"/>
+      <c r="M285" s="110"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="110"/>
+      <c r="E286" s="110"/>
+      <c r="F286" s="110"/>
+      <c r="G286" s="110"/>
+      <c r="H286" s="110"/>
+      <c r="I286" s="110"/>
+      <c r="J286" s="110"/>
+      <c r="K286" s="110"/>
+      <c r="L286" s="110"/>
+      <c r="M286" s="110"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="110"/>
+      <c r="E287" s="110"/>
+      <c r="F287" s="110"/>
+      <c r="G287" s="110"/>
+      <c r="H287" s="110"/>
+      <c r="I287" s="110"/>
+      <c r="J287" s="110"/>
+      <c r="K287" s="110"/>
+      <c r="L287" s="110"/>
+      <c r="M287" s="110"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="110"/>
+      <c r="E288" s="110"/>
+      <c r="F288" s="110"/>
+      <c r="G288" s="110"/>
+      <c r="H288" s="110"/>
+      <c r="I288" s="110"/>
+      <c r="J288" s="110"/>
+      <c r="K288" s="110"/>
+      <c r="L288" s="110"/>
+      <c r="M288" s="110"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="110"/>
+      <c r="E289" s="110"/>
+      <c r="F289" s="110"/>
+      <c r="G289" s="110"/>
+      <c r="H289" s="110"/>
+      <c r="I289" s="110"/>
+      <c r="J289" s="110"/>
+      <c r="K289" s="110"/>
+      <c r="L289" s="110"/>
+      <c r="M289" s="110"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="110"/>
+      <c r="E290" s="110"/>
+      <c r="F290" s="110"/>
+      <c r="G290" s="110"/>
+      <c r="H290" s="110"/>
+      <c r="I290" s="110"/>
+      <c r="J290" s="110"/>
+      <c r="K290" s="110"/>
+      <c r="L290" s="110"/>
+      <c r="M290" s="110"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="110"/>
+      <c r="E291" s="110"/>
+      <c r="F291" s="110"/>
+      <c r="G291" s="110"/>
+      <c r="H291" s="110"/>
+      <c r="I291" s="110"/>
+      <c r="J291" s="110"/>
+      <c r="K291" s="110"/>
+      <c r="L291" s="110"/>
+      <c r="M291" s="110"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="110"/>
+      <c r="E292" s="110"/>
+      <c r="F292" s="110"/>
+      <c r="G292" s="110"/>
+      <c r="H292" s="110"/>
+      <c r="I292" s="110"/>
+      <c r="J292" s="110"/>
+      <c r="K292" s="110"/>
+      <c r="L292" s="110"/>
+      <c r="M292" s="110"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="110"/>
+      <c r="E293" s="110"/>
+      <c r="F293" s="110"/>
+      <c r="G293" s="110"/>
+      <c r="H293" s="110"/>
+      <c r="I293" s="110"/>
+      <c r="J293" s="110"/>
+      <c r="K293" s="110"/>
+      <c r="L293" s="110"/>
+      <c r="M293" s="110"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="110"/>
+      <c r="E294" s="110"/>
+      <c r="F294" s="110"/>
+      <c r="G294" s="110"/>
+      <c r="H294" s="110"/>
+      <c r="I294" s="110"/>
+      <c r="J294" s="110"/>
+      <c r="K294" s="110"/>
+      <c r="L294" s="110"/>
+      <c r="M294" s="110"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="110"/>
+      <c r="E295" s="110"/>
+      <c r="F295" s="110"/>
+      <c r="G295" s="110"/>
+      <c r="H295" s="110"/>
+      <c r="I295" s="110"/>
+      <c r="J295" s="110"/>
+      <c r="K295" s="110"/>
+      <c r="L295" s="110"/>
+      <c r="M295" s="110"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="110"/>
+      <c r="E296" s="110"/>
+      <c r="F296" s="110"/>
+      <c r="G296" s="110"/>
+      <c r="H296" s="110"/>
+      <c r="I296" s="110"/>
+      <c r="J296" s="110"/>
+      <c r="K296" s="110"/>
+      <c r="L296" s="110"/>
+      <c r="M296" s="110"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="110"/>
+      <c r="E297" s="110"/>
+      <c r="F297" s="110"/>
+      <c r="G297" s="110"/>
+      <c r="H297" s="110"/>
+      <c r="I297" s="110"/>
+      <c r="J297" s="110"/>
+      <c r="K297" s="110"/>
+      <c r="L297" s="110"/>
+      <c r="M297" s="110"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="110"/>
+      <c r="E298" s="110"/>
+      <c r="F298" s="110"/>
+      <c r="G298" s="110"/>
+      <c r="H298" s="110"/>
+      <c r="I298" s="110"/>
+      <c r="J298" s="110"/>
+      <c r="K298" s="110"/>
+      <c r="L298" s="110"/>
+      <c r="M298" s="110"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="110"/>
+      <c r="E299" s="110"/>
+      <c r="F299" s="110"/>
+      <c r="G299" s="110"/>
+      <c r="H299" s="110"/>
+      <c r="I299" s="110"/>
+      <c r="J299" s="110"/>
+      <c r="K299" s="110"/>
+      <c r="L299" s="110"/>
+      <c r="M299" s="110"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="110"/>
+      <c r="E300" s="110"/>
+      <c r="F300" s="110"/>
+      <c r="G300" s="110"/>
+      <c r="H300" s="110"/>
+      <c r="I300" s="110"/>
+      <c r="J300" s="110"/>
+      <c r="K300" s="110"/>
+      <c r="L300" s="110"/>
+      <c r="M300" s="110"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="110"/>
+      <c r="E301" s="110"/>
+      <c r="F301" s="110"/>
+      <c r="G301" s="110"/>
+      <c r="H301" s="110"/>
+      <c r="I301" s="110"/>
+      <c r="J301" s="110"/>
+      <c r="K301" s="110"/>
+      <c r="L301" s="110"/>
+      <c r="M301" s="110"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="110"/>
+      <c r="E302" s="110"/>
+      <c r="F302" s="110"/>
+      <c r="G302" s="110"/>
+      <c r="H302" s="110"/>
+      <c r="I302" s="110"/>
+      <c r="J302" s="110"/>
+      <c r="K302" s="110"/>
+      <c r="L302" s="110"/>
+      <c r="M302" s="110"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="110"/>
+      <c r="E303" s="110"/>
+      <c r="F303" s="110"/>
+      <c r="G303" s="110"/>
+      <c r="H303" s="110"/>
+      <c r="I303" s="110"/>
+      <c r="J303" s="110"/>
+      <c r="K303" s="110"/>
+      <c r="L303" s="110"/>
+      <c r="M303" s="110"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="110"/>
+      <c r="E304" s="110"/>
+      <c r="F304" s="110"/>
+      <c r="G304" s="110"/>
+      <c r="H304" s="110"/>
+      <c r="I304" s="110"/>
+      <c r="J304" s="110"/>
+      <c r="K304" s="110"/>
+      <c r="L304" s="110"/>
+      <c r="M304" s="110"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="110"/>
+      <c r="E305" s="110"/>
+      <c r="F305" s="110"/>
+      <c r="G305" s="110"/>
+      <c r="H305" s="110"/>
+      <c r="I305" s="110"/>
+      <c r="J305" s="110"/>
+      <c r="K305" s="110"/>
+      <c r="L305" s="110"/>
+      <c r="M305" s="110"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="110"/>
+      <c r="E306" s="110"/>
+      <c r="F306" s="110"/>
+      <c r="G306" s="110"/>
+      <c r="H306" s="110"/>
+      <c r="I306" s="110"/>
+      <c r="J306" s="110"/>
+      <c r="K306" s="110"/>
+      <c r="L306" s="110"/>
+      <c r="M306" s="110"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="110"/>
+      <c r="E307" s="110"/>
+      <c r="F307" s="110"/>
+      <c r="G307" s="110"/>
+      <c r="H307" s="110"/>
+      <c r="I307" s="110"/>
+      <c r="J307" s="110"/>
+      <c r="K307" s="110"/>
+      <c r="L307" s="110"/>
+      <c r="M307" s="110"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="110"/>
+      <c r="E308" s="110"/>
+      <c r="F308" s="110"/>
+      <c r="G308" s="110"/>
+      <c r="H308" s="110"/>
+      <c r="I308" s="110"/>
+      <c r="J308" s="110"/>
+      <c r="K308" s="110"/>
+      <c r="L308" s="110"/>
+      <c r="M308" s="110"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N2:P69"/>
+    <mergeCell ref="N70:P137"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
